--- a/goldendata/Assignment2Part1NoRDO/Part1_RDO_Disabled_Testdata.xlsx
+++ b/goldendata/Assignment2Part1NoRDO/Part1_RDO_Disabled_Testdata.xlsx
@@ -8,13 +8,15 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Block 8" sheetId="2" r:id="rId2"/>
+    <sheet name="Block 16" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="29">
   <si>
     <t>Block = 8</t>
   </si>
@@ -36,13 +38,87 @@
   <si>
     <t>Block = 16</t>
   </si>
+  <si>
+    <t>QP = 0</t>
+  </si>
+  <si>
+    <t>QP = 3</t>
+  </si>
+  <si>
+    <t>QP = 6</t>
+  </si>
+  <si>
+    <t>QP = 9</t>
+  </si>
+  <si>
+    <t>QP = 1</t>
+  </si>
+  <si>
+    <t>QP = 4</t>
+  </si>
+  <si>
+    <t>QP = 7</t>
+  </si>
+  <si>
+    <t>QP = 10</t>
+  </si>
+  <si>
+    <t>IP_1_Block_8</t>
+  </si>
+  <si>
+    <t>COEFF BITS</t>
+  </si>
+  <si>
+    <t>MDIFF BITS</t>
+  </si>
+  <si>
+    <t>RUN_TIME</t>
+  </si>
+  <si>
+    <t>Coeff Sum</t>
+  </si>
+  <si>
+    <t>Mdiff Sum</t>
+  </si>
+  <si>
+    <t>Bit Sum</t>
+  </si>
+  <si>
+    <t>Avg PSNR</t>
+  </si>
+  <si>
+    <t>IP_4_Block_8</t>
+  </si>
+  <si>
+    <t>IP_10_Block_8</t>
+  </si>
+  <si>
+    <t>IP_4_Block_16</t>
+  </si>
+  <si>
+    <t>IP_1_Block_16</t>
+  </si>
+  <si>
+    <t>IP_10_Block_16</t>
+  </si>
+  <si>
+    <t>Execution Time</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -70,9 +146,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -127,8 +204,13 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Block 16 </a:t>
+              <a:t>RD plot i=16,</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> r=2 RDO Disabled</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -136,8 +218,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.46409011373578302"/>
-          <c:y val="0"/>
+          <c:x val="0.30269459427807738"/>
+          <c:y val="3.7037008389668384E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -212,16 +294,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>109996.13003095976</c:v>
+                  <c:v>4263450</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>40175.504322766566</c:v>
+                  <c:v>1254681</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6420.7104345068183</c:v>
+                  <c:v>202445</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1208.01872074883</c:v>
+                  <c:v>38717</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -286,16 +368,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>22911.697387961911</c:v>
+                  <c:v>2622702</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4217.1982089006669</c:v>
+                  <c:v>461488</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>454.00914000830915</c:v>
+                  <c:v>54640</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>171.98789820252713</c:v>
+                  <c:v>19328</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -360,16 +442,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>21579.742046431642</c:v>
+                  <c:v>2509724</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3233.9216862308285</c:v>
+                  <c:v>377431</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>371.76894069249227</c:v>
+                  <c:v>43378</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>212.96423997635699</c:v>
+                  <c:v>21618</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -398,7 +480,6 @@
           <c:smooth val="1"/>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -406,11 +487,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="485028384"/>
-        <c:axId val="485031520"/>
+        <c:axId val="391277632"/>
+        <c:axId val="391279592"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="485028384"/>
+        <c:axId val="391277632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -451,7 +532,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Bitrate (Bits/Sec)</a:t>
+                  <a:t>Bitrate (Bits)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -523,12 +604,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="485031520"/>
+        <c:crossAx val="391279592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="485031520"/>
+        <c:axId val="391279592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -641,7 +722,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="485028384"/>
+        <c:crossAx val="391277632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -757,8 +838,13 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Block 8</a:t>
+              <a:t>RD plot</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> i=8, r=2 RDO Disabled</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -835,16 +921,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>109996.13003095976</c:v>
+                  <c:v>4263450</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>40175.504322766566</c:v>
+                  <c:v>1254681</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6420.7104345068183</c:v>
+                  <c:v>202445</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1208.01872074883</c:v>
+                  <c:v>38717</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -909,16 +995,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>119591.53625039924</c:v>
+                  <c:v>3744411</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>28961.464662615926</c:v>
+                  <c:v>905625</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5362.8050764725022</c:v>
+                  <c:v>164799</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2679.2</c:v>
+                  <c:v>77027</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -983,16 +1069,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>118694.50585175552</c:v>
+                  <c:v>3651043</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>26278.280690328884</c:v>
+                  <c:v>807006</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5073.1201088805719</c:v>
+                  <c:v>149099</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2777.976380466007</c:v>
+                  <c:v>87034</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1021,7 +1107,6 @@
           <c:smooth val="1"/>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -1029,11 +1114,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="395742936"/>
-        <c:axId val="395740192"/>
+        <c:axId val="391281552"/>
+        <c:axId val="392653792"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="395742936"/>
+        <c:axId val="391281552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1074,7 +1159,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Bitrate (Bits/Sec)</a:t>
+                  <a:t>Bitrate (Bits)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1146,12 +1231,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="395740192"/>
+        <c:crossAx val="392653792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="395740192"/>
+        <c:axId val="392653792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1264,7 +1349,525 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="395742936"/>
+        <c:crossAx val="391281552"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Average</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Run Time RDO Disabled</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>8x8</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>31.484999999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>16x16</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$G$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>112.42750000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="392655360"/>
+        <c:axId val="392654184"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="392655360"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Block</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Size</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="392654184"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="392654184"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Run Time (s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="392655360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1425,6 +2028,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -2457,20 +3100,536 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>297180</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>182880</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>601980</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>502920</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2491,16 +3650,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>579120</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:rowOff>53340</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>274320</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2514,6 +3673,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>99060</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2809,73 +3998,73 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <selection activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1" t="s">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1" t="s">
+      <c r="D2" s="2"/>
+      <c r="E2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="1"/>
+      <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>109996.13003095976</v>
+        <v>4263450</v>
       </c>
       <c r="B4">
         <v>37.906968200000001</v>
       </c>
       <c r="C4">
-        <v>119591.53625039924</v>
+        <v>3744411</v>
       </c>
       <c r="D4">
         <v>38.142766599999995</v>
       </c>
       <c r="E4">
-        <v>118694.50585175552</v>
+        <v>3651043</v>
       </c>
       <c r="F4">
         <v>37.690782999999996</v>
@@ -2883,19 +4072,19 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>40175.504322766566</v>
+        <v>1254681</v>
       </c>
       <c r="B5">
         <v>31.191080400000004</v>
       </c>
       <c r="C5">
-        <v>28961.464662615926</v>
+        <v>905625</v>
       </c>
       <c r="D5">
         <v>31.409247700000002</v>
       </c>
       <c r="E5">
-        <v>26278.280690328884</v>
+        <v>807006</v>
       </c>
       <c r="F5">
         <v>31.530800699999997</v>
@@ -2903,19 +4092,19 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>6420.7104345068183</v>
+        <v>202445</v>
       </c>
       <c r="B6">
         <v>26.649968999999999</v>
       </c>
       <c r="C6">
-        <v>5362.8050764725022</v>
+        <v>164799</v>
       </c>
       <c r="D6">
         <v>27.544206999999993</v>
       </c>
       <c r="E6">
-        <v>5073.1201088805719</v>
+        <v>149099</v>
       </c>
       <c r="F6">
         <v>27.967571499999998</v>
@@ -2923,83 +4112,83 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>1208.01872074883</v>
+        <v>38717</v>
       </c>
       <c r="B7">
         <v>18.360233200000003</v>
       </c>
       <c r="C7">
-        <v>2679.2</v>
+        <v>77027</v>
       </c>
       <c r="D7">
         <v>19.3384827</v>
       </c>
       <c r="E7">
-        <v>2777.976380466007</v>
+        <v>87034</v>
       </c>
       <c r="F7">
         <v>19.818847399999999</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1" t="s">
+      <c r="B10" s="2"/>
+      <c r="C10" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1" t="s">
+      <c r="D10" s="2"/>
+      <c r="E10" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F10" s="1"/>
+      <c r="F10" s="2"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="A11" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>28233.738082388918</v>
+        <v>3139027</v>
       </c>
       <c r="B12">
         <v>33.583282000000004</v>
       </c>
       <c r="C12">
-        <v>22911.697387961911</v>
+        <v>2622702</v>
       </c>
       <c r="D12">
         <v>33.026169899999999</v>
       </c>
       <c r="E12">
-        <v>21579.742046431642</v>
+        <v>2509724</v>
       </c>
       <c r="F12">
         <v>32.9477172</v>
@@ -3007,19 +4196,19 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>6761.8936608984131</v>
+        <v>754154</v>
       </c>
       <c r="B13">
         <v>29.965587900000003</v>
       </c>
       <c r="C13">
-        <v>4217.1982089006669</v>
+        <v>461488</v>
       </c>
       <c r="D13">
         <v>29.976212600000004</v>
       </c>
       <c r="E13">
-        <v>3233.9216862308285</v>
+        <v>377431</v>
       </c>
       <c r="F13">
         <v>29.624307500000004</v>
@@ -3027,19 +4216,19 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>772.07174231332351</v>
+        <v>84372</v>
       </c>
       <c r="B14">
         <v>24.600240100000001</v>
       </c>
       <c r="C14">
-        <v>454.00914000830915</v>
+        <v>54640</v>
       </c>
       <c r="D14">
         <v>25.1409986</v>
       </c>
       <c r="E14">
-        <v>371.76894069249227</v>
+        <v>43378</v>
       </c>
       <c r="F14">
         <v>25.458431600000001</v>
@@ -3047,36 +4236,3846 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>85.884182599945106</v>
+        <v>9388</v>
       </c>
       <c r="B15">
         <v>16.677157999999999</v>
       </c>
       <c r="C15">
-        <v>171.98789820252713</v>
+        <v>19328</v>
       </c>
       <c r="D15">
         <v>17.069004499999998</v>
       </c>
       <c r="E15">
-        <v>212.96423997635699</v>
+        <v>21618</v>
       </c>
       <c r="F15">
         <v>17.505871900000002</v>
       </c>
     </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20" t="s">
+        <v>12</v>
+      </c>
+      <c r="H20" t="s">
+        <v>13</v>
+      </c>
+      <c r="I20" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>38.76</v>
+      </c>
+      <c r="B21">
+        <v>31.23</v>
+      </c>
+      <c r="C21">
+        <v>31.53</v>
+      </c>
+      <c r="D21">
+        <v>32.049999999999997</v>
+      </c>
+      <c r="F21">
+        <v>111.18</v>
+      </c>
+      <c r="G21">
+        <v>111.53</v>
+      </c>
+      <c r="H21">
+        <v>109.28</v>
+      </c>
+      <c r="I21">
+        <v>109.31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" t="s">
+        <v>11</v>
+      </c>
+      <c r="G22" t="s">
+        <v>12</v>
+      </c>
+      <c r="H22" t="s">
+        <v>13</v>
+      </c>
+      <c r="I22" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>31.31</v>
+      </c>
+      <c r="B23">
+        <v>31.27</v>
+      </c>
+      <c r="C23">
+        <v>30.73</v>
+      </c>
+      <c r="D23">
+        <v>28.75</v>
+      </c>
+      <c r="F23">
+        <v>114.47</v>
+      </c>
+      <c r="G23">
+        <v>109.43</v>
+      </c>
+      <c r="H23">
+        <v>120.35</v>
+      </c>
+      <c r="I23">
+        <v>112.38</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24" t="s">
+        <v>11</v>
+      </c>
+      <c r="G24" t="s">
+        <v>12</v>
+      </c>
+      <c r="H24" t="s">
+        <v>13</v>
+      </c>
+      <c r="I24" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>30.76</v>
+      </c>
+      <c r="B25">
+        <v>30.71</v>
+      </c>
+      <c r="C25">
+        <v>29.39</v>
+      </c>
+      <c r="D25">
+        <v>31.33</v>
+      </c>
+      <c r="F25">
+        <v>116.3</v>
+      </c>
+      <c r="G25">
+        <v>116.71</v>
+      </c>
+      <c r="H25">
+        <v>116.68</v>
+      </c>
+      <c r="I25">
+        <v>101.51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>8</v>
+      </c>
+      <c r="B27">
+        <f>AVERAGE(A21,B21,C21,D21,D23,C23,B23,A23,A25,B25,C25,D25)</f>
+        <v>31.484999999999996</v>
+      </c>
+      <c r="F27">
+        <v>16</v>
+      </c>
+      <c r="G27">
+        <f>AVERAGE(F21,G21,H21,I21,F23,G23,H23,I23,F25,G25,H25,I25)</f>
+        <v>112.42750000000001</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
+    <mergeCell ref="A18:I18"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:F10"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="A9:F9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:F10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N58"/>
+  <sheetViews>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="N56" sqref="N56"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>423684</v>
+      </c>
+      <c r="B4">
+        <v>121766</v>
+      </c>
+      <c r="C4">
+        <v>17584</v>
+      </c>
+      <c r="D4">
+        <v>1830</v>
+      </c>
+      <c r="F4">
+        <v>423684</v>
+      </c>
+      <c r="G4">
+        <v>121766</v>
+      </c>
+      <c r="H4">
+        <v>17584</v>
+      </c>
+      <c r="I4">
+        <v>1830</v>
+      </c>
+      <c r="K4">
+        <v>423684</v>
+      </c>
+      <c r="L4">
+        <v>121766</v>
+      </c>
+      <c r="M4">
+        <v>17584</v>
+      </c>
+      <c r="N4">
+        <v>1830</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>419097</v>
+      </c>
+      <c r="B5">
+        <v>121437</v>
+      </c>
+      <c r="C5">
+        <v>17194</v>
+      </c>
+      <c r="D5">
+        <v>1857</v>
+      </c>
+      <c r="F5">
+        <v>356980</v>
+      </c>
+      <c r="G5">
+        <v>72181</v>
+      </c>
+      <c r="H5">
+        <v>3858</v>
+      </c>
+      <c r="I5">
+        <v>1584</v>
+      </c>
+      <c r="K5">
+        <v>356980</v>
+      </c>
+      <c r="L5">
+        <v>72181</v>
+      </c>
+      <c r="M5">
+        <v>3858</v>
+      </c>
+      <c r="N5">
+        <v>1584</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>418280</v>
+      </c>
+      <c r="B6">
+        <v>121037</v>
+      </c>
+      <c r="C6">
+        <v>17481</v>
+      </c>
+      <c r="D6">
+        <v>1845</v>
+      </c>
+      <c r="F6">
+        <v>354217</v>
+      </c>
+      <c r="G6">
+        <v>71295</v>
+      </c>
+      <c r="H6">
+        <v>3612</v>
+      </c>
+      <c r="I6">
+        <v>1620</v>
+      </c>
+      <c r="K6">
+        <v>354217</v>
+      </c>
+      <c r="L6">
+        <v>71295</v>
+      </c>
+      <c r="M6">
+        <v>3612</v>
+      </c>
+      <c r="N6">
+        <v>1620</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>421150</v>
+      </c>
+      <c r="B7">
+        <v>120974</v>
+      </c>
+      <c r="C7">
+        <v>17525</v>
+      </c>
+      <c r="D7">
+        <v>1851</v>
+      </c>
+      <c r="F7">
+        <v>341384</v>
+      </c>
+      <c r="G7">
+        <v>64784</v>
+      </c>
+      <c r="H7">
+        <v>3780</v>
+      </c>
+      <c r="I7">
+        <v>1584</v>
+      </c>
+      <c r="K7">
+        <v>341384</v>
+      </c>
+      <c r="L7">
+        <v>64784</v>
+      </c>
+      <c r="M7">
+        <v>3780</v>
+      </c>
+      <c r="N7">
+        <v>1584</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>421211</v>
+      </c>
+      <c r="B8">
+        <v>123026</v>
+      </c>
+      <c r="C8">
+        <v>17092</v>
+      </c>
+      <c r="D8">
+        <v>1893</v>
+      </c>
+      <c r="F8">
+        <v>421211</v>
+      </c>
+      <c r="G8">
+        <v>123026</v>
+      </c>
+      <c r="H8">
+        <v>17092</v>
+      </c>
+      <c r="I8">
+        <v>1893</v>
+      </c>
+      <c r="K8">
+        <v>360769</v>
+      </c>
+      <c r="L8">
+        <v>70866</v>
+      </c>
+      <c r="M8">
+        <v>3321</v>
+      </c>
+      <c r="N8">
+        <v>1584</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>423746</v>
+      </c>
+      <c r="B9">
+        <v>122121</v>
+      </c>
+      <c r="C9">
+        <v>17398</v>
+      </c>
+      <c r="D9">
+        <v>1869</v>
+      </c>
+      <c r="F9">
+        <v>345204</v>
+      </c>
+      <c r="G9">
+        <v>69125</v>
+      </c>
+      <c r="H9">
+        <v>3158</v>
+      </c>
+      <c r="I9">
+        <v>1584</v>
+      </c>
+      <c r="K9">
+        <v>357037</v>
+      </c>
+      <c r="L9">
+        <v>70420</v>
+      </c>
+      <c r="M9">
+        <v>2977</v>
+      </c>
+      <c r="N9">
+        <v>1584</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>425293</v>
+      </c>
+      <c r="B10">
+        <v>122870</v>
+      </c>
+      <c r="C10">
+        <v>17449</v>
+      </c>
+      <c r="D10">
+        <v>1881</v>
+      </c>
+      <c r="F10">
+        <v>300421</v>
+      </c>
+      <c r="G10">
+        <v>50115</v>
+      </c>
+      <c r="H10">
+        <v>2785</v>
+      </c>
+      <c r="I10">
+        <v>1584</v>
+      </c>
+      <c r="K10">
+        <v>304730</v>
+      </c>
+      <c r="L10">
+        <v>52490</v>
+      </c>
+      <c r="M10">
+        <v>2689</v>
+      </c>
+      <c r="N10">
+        <v>1584</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>425221</v>
+      </c>
+      <c r="B11">
+        <v>123313</v>
+      </c>
+      <c r="C11">
+        <v>17748</v>
+      </c>
+      <c r="D11">
+        <v>1881</v>
+      </c>
+      <c r="F11">
+        <v>364634</v>
+      </c>
+      <c r="G11">
+        <v>68088</v>
+      </c>
+      <c r="H11">
+        <v>2734</v>
+      </c>
+      <c r="I11">
+        <v>1590</v>
+      </c>
+      <c r="K11">
+        <v>367916</v>
+      </c>
+      <c r="L11">
+        <v>68064</v>
+      </c>
+      <c r="M11">
+        <v>2484</v>
+      </c>
+      <c r="N11">
+        <v>1596</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>426223</v>
+      </c>
+      <c r="B12">
+        <v>124344</v>
+      </c>
+      <c r="C12">
+        <v>17432</v>
+      </c>
+      <c r="D12">
+        <v>1845</v>
+      </c>
+      <c r="F12">
+        <v>426223</v>
+      </c>
+      <c r="G12">
+        <v>124344</v>
+      </c>
+      <c r="H12">
+        <v>17432</v>
+      </c>
+      <c r="I12">
+        <v>1845</v>
+      </c>
+      <c r="K12">
+        <v>348757</v>
+      </c>
+      <c r="L12">
+        <v>62492</v>
+      </c>
+      <c r="M12">
+        <v>2698</v>
+      </c>
+      <c r="N12">
+        <v>1590</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>430333</v>
+      </c>
+      <c r="B13">
+        <v>124219</v>
+      </c>
+      <c r="C13">
+        <v>17856</v>
+      </c>
+      <c r="D13">
+        <v>1887</v>
+      </c>
+      <c r="F13">
+        <v>344455</v>
+      </c>
+      <c r="G13">
+        <v>65547</v>
+      </c>
+      <c r="H13">
+        <v>3514</v>
+      </c>
+      <c r="I13">
+        <v>1595</v>
+      </c>
+      <c r="K13">
+        <v>359229</v>
+      </c>
+      <c r="L13">
+        <v>66072</v>
+      </c>
+      <c r="M13">
+        <v>2798</v>
+      </c>
+      <c r="N13">
+        <v>1584</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>2948</v>
+      </c>
+      <c r="B17">
+        <v>3020</v>
+      </c>
+      <c r="C17">
+        <v>2778</v>
+      </c>
+      <c r="D17">
+        <v>2080</v>
+      </c>
+      <c r="F17">
+        <v>2948</v>
+      </c>
+      <c r="G17">
+        <v>3020</v>
+      </c>
+      <c r="H17">
+        <v>2778</v>
+      </c>
+      <c r="I17">
+        <v>2080</v>
+      </c>
+      <c r="K17">
+        <v>2948</v>
+      </c>
+      <c r="L17">
+        <v>3020</v>
+      </c>
+      <c r="M17">
+        <v>2778</v>
+      </c>
+      <c r="N17">
+        <v>2080</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>2898</v>
+      </c>
+      <c r="B18">
+        <v>2958</v>
+      </c>
+      <c r="C18">
+        <v>2752</v>
+      </c>
+      <c r="D18">
+        <v>2018</v>
+      </c>
+      <c r="F18">
+        <v>8498</v>
+      </c>
+      <c r="G18">
+        <v>10020</v>
+      </c>
+      <c r="H18">
+        <v>11892</v>
+      </c>
+      <c r="I18">
+        <v>7894</v>
+      </c>
+      <c r="K18">
+        <v>8498</v>
+      </c>
+      <c r="L18">
+        <v>10020</v>
+      </c>
+      <c r="M18">
+        <v>11892</v>
+      </c>
+      <c r="N18">
+        <v>7894</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>2946</v>
+      </c>
+      <c r="B19">
+        <v>2946</v>
+      </c>
+      <c r="C19">
+        <v>2724</v>
+      </c>
+      <c r="D19">
+        <v>2010</v>
+      </c>
+      <c r="F19">
+        <v>8746</v>
+      </c>
+      <c r="G19">
+        <v>9646</v>
+      </c>
+      <c r="H19">
+        <v>11652</v>
+      </c>
+      <c r="I19">
+        <v>7820</v>
+      </c>
+      <c r="K19">
+        <v>8746</v>
+      </c>
+      <c r="L19">
+        <v>9646</v>
+      </c>
+      <c r="M19">
+        <v>11652</v>
+      </c>
+      <c r="N19">
+        <v>7820</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>2924</v>
+      </c>
+      <c r="B20">
+        <v>2992</v>
+      </c>
+      <c r="C20">
+        <v>2780</v>
+      </c>
+      <c r="D20">
+        <v>2006</v>
+      </c>
+      <c r="F20">
+        <v>7866</v>
+      </c>
+      <c r="G20">
+        <v>8874</v>
+      </c>
+      <c r="H20">
+        <v>11310</v>
+      </c>
+      <c r="I20">
+        <v>7710</v>
+      </c>
+      <c r="K20">
+        <v>7866</v>
+      </c>
+      <c r="L20">
+        <v>8874</v>
+      </c>
+      <c r="M20">
+        <v>11310</v>
+      </c>
+      <c r="N20">
+        <v>7710</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>2966</v>
+      </c>
+      <c r="B21">
+        <v>2922</v>
+      </c>
+      <c r="C21">
+        <v>2788</v>
+      </c>
+      <c r="D21">
+        <v>2014</v>
+      </c>
+      <c r="F21">
+        <v>2966</v>
+      </c>
+      <c r="G21">
+        <v>2922</v>
+      </c>
+      <c r="H21">
+        <v>2788</v>
+      </c>
+      <c r="I21">
+        <v>2014</v>
+      </c>
+      <c r="K21">
+        <v>8376</v>
+      </c>
+      <c r="L21">
+        <v>9316</v>
+      </c>
+      <c r="M21">
+        <v>10938</v>
+      </c>
+      <c r="N21">
+        <v>7608</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>2938</v>
+      </c>
+      <c r="B22">
+        <v>2962</v>
+      </c>
+      <c r="C22">
+        <v>2816</v>
+      </c>
+      <c r="D22">
+        <v>2002</v>
+      </c>
+      <c r="F22">
+        <v>8158</v>
+      </c>
+      <c r="G22">
+        <v>9808</v>
+      </c>
+      <c r="H22">
+        <v>11768</v>
+      </c>
+      <c r="I22">
+        <v>7892</v>
+      </c>
+      <c r="K22">
+        <v>8248</v>
+      </c>
+      <c r="L22">
+        <v>9348</v>
+      </c>
+      <c r="M22">
+        <v>11084</v>
+      </c>
+      <c r="N22">
+        <v>7422</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>2904</v>
+      </c>
+      <c r="B23">
+        <v>2992</v>
+      </c>
+      <c r="C23">
+        <v>2786</v>
+      </c>
+      <c r="D23">
+        <v>1990</v>
+      </c>
+      <c r="F23">
+        <v>7406</v>
+      </c>
+      <c r="G23">
+        <v>8906</v>
+      </c>
+      <c r="H23">
+        <v>11412</v>
+      </c>
+      <c r="I23">
+        <v>7700</v>
+      </c>
+      <c r="K23">
+        <v>7484</v>
+      </c>
+      <c r="L23">
+        <v>8636</v>
+      </c>
+      <c r="M23">
+        <v>11008</v>
+      </c>
+      <c r="N23">
+        <v>7362</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>2862</v>
+      </c>
+      <c r="B24">
+        <v>2902</v>
+      </c>
+      <c r="C24">
+        <v>2760</v>
+      </c>
+      <c r="D24">
+        <v>1962</v>
+      </c>
+      <c r="F24">
+        <v>8706</v>
+      </c>
+      <c r="G24">
+        <v>9664</v>
+      </c>
+      <c r="H24">
+        <v>11036</v>
+      </c>
+      <c r="I24">
+        <v>7642</v>
+      </c>
+      <c r="K24">
+        <v>8624</v>
+      </c>
+      <c r="L24">
+        <v>9426</v>
+      </c>
+      <c r="M24">
+        <v>10986</v>
+      </c>
+      <c r="N24">
+        <v>7634</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>2950</v>
+      </c>
+      <c r="B25">
+        <v>2962</v>
+      </c>
+      <c r="C25">
+        <v>2762</v>
+      </c>
+      <c r="D25">
+        <v>1998</v>
+      </c>
+      <c r="F25">
+        <v>2950</v>
+      </c>
+      <c r="G25">
+        <v>2962</v>
+      </c>
+      <c r="H25">
+        <v>2762</v>
+      </c>
+      <c r="I25">
+        <v>1998</v>
+      </c>
+      <c r="K25">
+        <v>7706</v>
+      </c>
+      <c r="L25">
+        <v>9032</v>
+      </c>
+      <c r="M25">
+        <v>10768</v>
+      </c>
+      <c r="N25">
+        <v>7710</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>2876</v>
+      </c>
+      <c r="B26">
+        <v>2918</v>
+      </c>
+      <c r="C26">
+        <v>2740</v>
+      </c>
+      <c r="D26">
+        <v>1998</v>
+      </c>
+      <c r="F26">
+        <v>7754</v>
+      </c>
+      <c r="G26">
+        <v>9532</v>
+      </c>
+      <c r="H26">
+        <v>11852</v>
+      </c>
+      <c r="I26">
+        <v>7568</v>
+      </c>
+      <c r="K26">
+        <v>7844</v>
+      </c>
+      <c r="L26">
+        <v>9258</v>
+      </c>
+      <c r="M26">
+        <v>10882</v>
+      </c>
+      <c r="N26">
+        <v>7654</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N29" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>37.880038999999996</v>
+      </c>
+      <c r="B30">
+        <v>31.187199</v>
+      </c>
+      <c r="C30">
+        <v>26.361537999999999</v>
+      </c>
+      <c r="D30">
+        <v>18.360361000000001</v>
+      </c>
+      <c r="F30">
+        <v>37.880038999999996</v>
+      </c>
+      <c r="G30">
+        <v>31.187199</v>
+      </c>
+      <c r="H30">
+        <v>26.361537999999999</v>
+      </c>
+      <c r="I30">
+        <v>18.360361000000001</v>
+      </c>
+      <c r="K30">
+        <v>37.880038999999996</v>
+      </c>
+      <c r="L30">
+        <v>31.187199</v>
+      </c>
+      <c r="M30">
+        <v>26.361537999999999</v>
+      </c>
+      <c r="N30">
+        <v>18.360361000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>37.397551999999997</v>
+      </c>
+      <c r="B31">
+        <v>31.12059</v>
+      </c>
+      <c r="C31">
+        <v>26.704706000000002</v>
+      </c>
+      <c r="D31">
+        <v>17.931276</v>
+      </c>
+      <c r="F31">
+        <v>37.822735000000002</v>
+      </c>
+      <c r="G31">
+        <v>31.535202000000002</v>
+      </c>
+      <c r="H31">
+        <v>27.916713999999999</v>
+      </c>
+      <c r="I31">
+        <v>18.989090000000001</v>
+      </c>
+      <c r="K31">
+        <v>37.822735000000002</v>
+      </c>
+      <c r="L31">
+        <v>31.535202000000002</v>
+      </c>
+      <c r="M31">
+        <v>27.916713999999999</v>
+      </c>
+      <c r="N31">
+        <v>18.989090000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>37.164703000000003</v>
+      </c>
+      <c r="B32">
+        <v>31.198170000000001</v>
+      </c>
+      <c r="C32">
+        <v>26.800263999999999</v>
+      </c>
+      <c r="D32">
+        <v>18.132211999999999</v>
+      </c>
+      <c r="F32">
+        <v>37.798752</v>
+      </c>
+      <c r="G32">
+        <v>31.604728999999999</v>
+      </c>
+      <c r="H32">
+        <v>27.976347000000001</v>
+      </c>
+      <c r="I32">
+        <v>19.427371999999998</v>
+      </c>
+      <c r="K32">
+        <v>37.798752</v>
+      </c>
+      <c r="L32">
+        <v>31.604728999999999</v>
+      </c>
+      <c r="M32">
+        <v>27.976347000000001</v>
+      </c>
+      <c r="N32">
+        <v>19.427371999999998</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>37.627673999999999</v>
+      </c>
+      <c r="B33">
+        <v>31.254798999999998</v>
+      </c>
+      <c r="C33">
+        <v>26.723994999999999</v>
+      </c>
+      <c r="D33">
+        <v>18.250391</v>
+      </c>
+      <c r="F33">
+        <v>38.061965999999998</v>
+      </c>
+      <c r="G33">
+        <v>31.513731</v>
+      </c>
+      <c r="H33">
+        <v>28.016466000000001</v>
+      </c>
+      <c r="I33">
+        <v>19.733919</v>
+      </c>
+      <c r="K33">
+        <v>38.061965999999998</v>
+      </c>
+      <c r="L33">
+        <v>31.513731</v>
+      </c>
+      <c r="M33">
+        <v>28.016466000000001</v>
+      </c>
+      <c r="N33">
+        <v>19.733919</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>38.451855000000002</v>
+      </c>
+      <c r="B34">
+        <v>30.716206</v>
+      </c>
+      <c r="C34">
+        <v>26.849035000000001</v>
+      </c>
+      <c r="D34">
+        <v>18.749441000000001</v>
+      </c>
+      <c r="F34">
+        <v>38.451855000000002</v>
+      </c>
+      <c r="G34">
+        <v>30.716206</v>
+      </c>
+      <c r="H34">
+        <v>26.849035000000001</v>
+      </c>
+      <c r="I34">
+        <v>18.749441000000001</v>
+      </c>
+      <c r="K34">
+        <v>37.768104999999998</v>
+      </c>
+      <c r="L34">
+        <v>31.647970000000001</v>
+      </c>
+      <c r="M34">
+        <v>28.026081000000001</v>
+      </c>
+      <c r="N34">
+        <v>19.964296000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>38.437607</v>
+      </c>
+      <c r="B35">
+        <v>31.303554999999999</v>
+      </c>
+      <c r="C35">
+        <v>26.687038000000001</v>
+      </c>
+      <c r="D35">
+        <v>18.687515000000001</v>
+      </c>
+      <c r="F35">
+        <v>38.383975999999997</v>
+      </c>
+      <c r="G35">
+        <v>31.301732999999999</v>
+      </c>
+      <c r="H35">
+        <v>27.921130999999999</v>
+      </c>
+      <c r="I35">
+        <v>19.761944</v>
+      </c>
+      <c r="K35">
+        <v>37.758102000000001</v>
+      </c>
+      <c r="L35">
+        <v>31.489567000000001</v>
+      </c>
+      <c r="M35">
+        <v>28.163053999999999</v>
+      </c>
+      <c r="N35">
+        <v>20.089638000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>37.879821999999997</v>
+      </c>
+      <c r="B36">
+        <v>31.290668</v>
+      </c>
+      <c r="C36">
+        <v>26.639723</v>
+      </c>
+      <c r="D36">
+        <v>18.513586</v>
+      </c>
+      <c r="F36">
+        <v>37.838028000000001</v>
+      </c>
+      <c r="G36">
+        <v>31.367823000000001</v>
+      </c>
+      <c r="H36">
+        <v>27.987970000000001</v>
+      </c>
+      <c r="I36">
+        <v>20.346606999999999</v>
+      </c>
+      <c r="K36">
+        <v>37.785141000000003</v>
+      </c>
+      <c r="L36">
+        <v>31.711213999999998</v>
+      </c>
+      <c r="M36">
+        <v>28.263649000000001</v>
+      </c>
+      <c r="N36">
+        <v>20.176918000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>37.872917000000001</v>
+      </c>
+      <c r="B37">
+        <v>31.058554000000001</v>
+      </c>
+      <c r="C37">
+        <v>26.700073</v>
+      </c>
+      <c r="D37">
+        <v>18.264365999999999</v>
+      </c>
+      <c r="F37">
+        <v>37.770995999999997</v>
+      </c>
+      <c r="G37">
+        <v>31.705606</v>
+      </c>
+      <c r="H37">
+        <v>28.077217000000001</v>
+      </c>
+      <c r="I37">
+        <v>20.739407</v>
+      </c>
+      <c r="K37">
+        <v>37.741622999999997</v>
+      </c>
+      <c r="L37">
+        <v>31.906233</v>
+      </c>
+      <c r="M37">
+        <v>28.362537</v>
+      </c>
+      <c r="N37">
+        <v>20.339812999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>38.733325999999998</v>
+      </c>
+      <c r="B38">
+        <v>31.629612000000002</v>
+      </c>
+      <c r="C38">
+        <v>26.810925000000001</v>
+      </c>
+      <c r="D38">
+        <v>18.297740999999998</v>
+      </c>
+      <c r="F38">
+        <v>38.733325999999998</v>
+      </c>
+      <c r="G38">
+        <v>31.629612000000002</v>
+      </c>
+      <c r="H38">
+        <v>26.810925000000001</v>
+      </c>
+      <c r="I38">
+        <v>18.297740999999998</v>
+      </c>
+      <c r="K38">
+        <v>37.043503000000001</v>
+      </c>
+      <c r="L38">
+        <v>31.617466</v>
+      </c>
+      <c r="M38">
+        <v>28.196598000000002</v>
+      </c>
+      <c r="N38">
+        <v>20.499641</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>37.624186999999999</v>
+      </c>
+      <c r="B39">
+        <v>31.151451000000002</v>
+      </c>
+      <c r="C39">
+        <v>26.222393</v>
+      </c>
+      <c r="D39">
+        <v>18.415443</v>
+      </c>
+      <c r="F39">
+        <v>38.685993000000003</v>
+      </c>
+      <c r="G39">
+        <v>31.530636000000001</v>
+      </c>
+      <c r="H39">
+        <v>27.524726999999999</v>
+      </c>
+      <c r="I39">
+        <v>18.978945</v>
+      </c>
+      <c r="K39">
+        <v>37.247864</v>
+      </c>
+      <c r="L39">
+        <v>31.094695999999999</v>
+      </c>
+      <c r="M39">
+        <v>28.392731000000001</v>
+      </c>
+      <c r="N39">
+        <v>20.607426</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L42" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M42" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N42" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>38.76</v>
+      </c>
+      <c r="B43">
+        <v>31.23</v>
+      </c>
+      <c r="C43">
+        <v>31.53</v>
+      </c>
+      <c r="D43">
+        <v>32.049999999999997</v>
+      </c>
+      <c r="F43">
+        <v>31.31</v>
+      </c>
+      <c r="G43">
+        <v>31.27</v>
+      </c>
+      <c r="H43">
+        <v>30.73</v>
+      </c>
+      <c r="I43">
+        <v>28.75</v>
+      </c>
+      <c r="K43">
+        <v>30.76</v>
+      </c>
+      <c r="L43">
+        <v>30.71</v>
+      </c>
+      <c r="M43">
+        <v>29.39</v>
+      </c>
+      <c r="N43">
+        <v>31.33</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
+      <c r="N45" s="1"/>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>4234238</v>
+      </c>
+      <c r="B46">
+        <v>1225107</v>
+      </c>
+      <c r="C46">
+        <v>174759</v>
+      </c>
+      <c r="D46">
+        <v>18639</v>
+      </c>
+      <c r="F46">
+        <v>3678413</v>
+      </c>
+      <c r="G46">
+        <v>830271</v>
+      </c>
+      <c r="H46">
+        <v>75549</v>
+      </c>
+      <c r="I46">
+        <v>16709</v>
+      </c>
+      <c r="K46">
+        <v>3574703</v>
+      </c>
+      <c r="L46">
+        <v>720430</v>
+      </c>
+      <c r="M46">
+        <v>45801</v>
+      </c>
+      <c r="N46">
+        <v>16140</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L47" s="1"/>
+      <c r="M47" s="1"/>
+      <c r="N47" s="1"/>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>29212</v>
+      </c>
+      <c r="B48">
+        <v>29574</v>
+      </c>
+      <c r="C48">
+        <v>27686</v>
+      </c>
+      <c r="D48">
+        <v>20078</v>
+      </c>
+      <c r="F48">
+        <v>65998</v>
+      </c>
+      <c r="G48">
+        <v>75354</v>
+      </c>
+      <c r="H48">
+        <v>89250</v>
+      </c>
+      <c r="I48">
+        <v>60318</v>
+      </c>
+      <c r="K48">
+        <v>76340</v>
+      </c>
+      <c r="L48">
+        <v>86576</v>
+      </c>
+      <c r="M48">
+        <v>103298</v>
+      </c>
+      <c r="N48">
+        <v>70894</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L49" s="1"/>
+      <c r="M49" s="1"/>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>4263450</v>
+      </c>
+      <c r="B50">
+        <v>1254681</v>
+      </c>
+      <c r="C50">
+        <v>202445</v>
+      </c>
+      <c r="D50">
+        <v>38717</v>
+      </c>
+      <c r="F50">
+        <v>3744411</v>
+      </c>
+      <c r="G50">
+        <v>905625</v>
+      </c>
+      <c r="H50">
+        <v>164799</v>
+      </c>
+      <c r="I50">
+        <v>77027</v>
+      </c>
+      <c r="K50">
+        <v>3651043</v>
+      </c>
+      <c r="L50">
+        <v>807006</v>
+      </c>
+      <c r="M50">
+        <v>149099</v>
+      </c>
+      <c r="N50">
+        <v>87034</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1"/>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L51" s="1"/>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>37.906968200000001</v>
+      </c>
+      <c r="B52">
+        <v>31.191080400000001</v>
+      </c>
+      <c r="C52">
+        <v>26.649968999999999</v>
+      </c>
+      <c r="D52">
+        <v>18.3602332</v>
+      </c>
+      <c r="F52">
+        <v>38.142766600000002</v>
+      </c>
+      <c r="G52">
+        <v>31.409247700000002</v>
+      </c>
+      <c r="H52">
+        <v>27.544207</v>
+      </c>
+      <c r="I52">
+        <v>19.3384827</v>
+      </c>
+      <c r="K52">
+        <v>37.690783000000003</v>
+      </c>
+      <c r="L52">
+        <v>31.5308007</v>
+      </c>
+      <c r="M52">
+        <v>27.967571499999998</v>
+      </c>
+      <c r="N52">
+        <v>19.818847399999999</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H54" s="1"/>
+      <c r="I54" s="1"/>
+      <c r="J54" s="1"/>
+      <c r="K54" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L54" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M54" s="1"/>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>4263450</v>
+      </c>
+      <c r="B55">
+        <v>37.906968200000001</v>
+      </c>
+      <c r="F55">
+        <v>3744411</v>
+      </c>
+      <c r="G55">
+        <v>38.142766600000002</v>
+      </c>
+      <c r="K55">
+        <v>3651043</v>
+      </c>
+      <c r="L55">
+        <v>37.690783000000003</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>1254681</v>
+      </c>
+      <c r="B56">
+        <v>31.191080400000001</v>
+      </c>
+      <c r="F56">
+        <v>905625</v>
+      </c>
+      <c r="G56">
+        <v>31.409247700000002</v>
+      </c>
+      <c r="K56">
+        <v>807006</v>
+      </c>
+      <c r="L56">
+        <v>31.5308007</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>202445</v>
+      </c>
+      <c r="B57">
+        <v>26.649968999999999</v>
+      </c>
+      <c r="F57">
+        <v>164799</v>
+      </c>
+      <c r="G57">
+        <v>27.544207</v>
+      </c>
+      <c r="K57">
+        <v>149099</v>
+      </c>
+      <c r="L57">
+        <v>27.967571499999998</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>38717</v>
+      </c>
+      <c r="B58">
+        <v>18.3602332</v>
+      </c>
+      <c r="F58">
+        <v>77027</v>
+      </c>
+      <c r="G58">
+        <v>19.3384827</v>
+      </c>
+      <c r="K58">
+        <v>87034</v>
+      </c>
+      <c r="L58">
+        <v>19.818847399999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N58"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P56" sqref="P56"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>313004</v>
+      </c>
+      <c r="B4">
+        <v>75688</v>
+      </c>
+      <c r="C4">
+        <v>7584</v>
+      </c>
+      <c r="D4">
+        <v>450</v>
+      </c>
+      <c r="F4">
+        <v>313004</v>
+      </c>
+      <c r="G4">
+        <v>75688</v>
+      </c>
+      <c r="H4">
+        <v>7584</v>
+      </c>
+      <c r="I4">
+        <v>450</v>
+      </c>
+      <c r="K4">
+        <v>313004</v>
+      </c>
+      <c r="L4">
+        <v>75688</v>
+      </c>
+      <c r="M4">
+        <v>7584</v>
+      </c>
+      <c r="N4">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>308062</v>
+      </c>
+      <c r="B5">
+        <v>73591</v>
+      </c>
+      <c r="C5">
+        <v>7788</v>
+      </c>
+      <c r="D5">
+        <v>438</v>
+      </c>
+      <c r="F5">
+        <v>251222</v>
+      </c>
+      <c r="G5">
+        <v>36648</v>
+      </c>
+      <c r="H5">
+        <v>1234</v>
+      </c>
+      <c r="I5">
+        <v>396</v>
+      </c>
+      <c r="K5">
+        <v>251222</v>
+      </c>
+      <c r="L5">
+        <v>36648</v>
+      </c>
+      <c r="M5">
+        <v>1234</v>
+      </c>
+      <c r="N5">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>307416</v>
+      </c>
+      <c r="B6">
+        <v>73676</v>
+      </c>
+      <c r="C6">
+        <v>7782</v>
+      </c>
+      <c r="D6">
+        <v>438</v>
+      </c>
+      <c r="F6">
+        <v>247312</v>
+      </c>
+      <c r="G6">
+        <v>34404</v>
+      </c>
+      <c r="H6">
+        <v>1348</v>
+      </c>
+      <c r="I6">
+        <v>396</v>
+      </c>
+      <c r="K6">
+        <v>247312</v>
+      </c>
+      <c r="L6">
+        <v>34404</v>
+      </c>
+      <c r="M6">
+        <v>1348</v>
+      </c>
+      <c r="N6">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>311842</v>
+      </c>
+      <c r="B7">
+        <v>74400</v>
+      </c>
+      <c r="C7">
+        <v>7348</v>
+      </c>
+      <c r="D7">
+        <v>444</v>
+      </c>
+      <c r="F7">
+        <v>230013</v>
+      </c>
+      <c r="G7">
+        <v>29238</v>
+      </c>
+      <c r="H7">
+        <v>1071</v>
+      </c>
+      <c r="I7">
+        <v>396</v>
+      </c>
+      <c r="K7">
+        <v>230013</v>
+      </c>
+      <c r="L7">
+        <v>29238</v>
+      </c>
+      <c r="M7">
+        <v>1071</v>
+      </c>
+      <c r="N7">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>310838</v>
+      </c>
+      <c r="B8">
+        <v>73734</v>
+      </c>
+      <c r="C8">
+        <v>7574</v>
+      </c>
+      <c r="D8">
+        <v>456</v>
+      </c>
+      <c r="F8">
+        <v>310838</v>
+      </c>
+      <c r="G8">
+        <v>73734</v>
+      </c>
+      <c r="H8">
+        <v>7574</v>
+      </c>
+      <c r="I8">
+        <v>456</v>
+      </c>
+      <c r="K8">
+        <v>247015</v>
+      </c>
+      <c r="L8">
+        <v>30853</v>
+      </c>
+      <c r="M8">
+        <v>1056</v>
+      </c>
+      <c r="N8">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>311959</v>
+      </c>
+      <c r="B9">
+        <v>74273</v>
+      </c>
+      <c r="C9">
+        <v>7871</v>
+      </c>
+      <c r="D9">
+        <v>444</v>
+      </c>
+      <c r="F9">
+        <v>240322</v>
+      </c>
+      <c r="G9">
+        <v>32675</v>
+      </c>
+      <c r="H9">
+        <v>1253</v>
+      </c>
+      <c r="I9">
+        <v>396</v>
+      </c>
+      <c r="K9">
+        <v>249701</v>
+      </c>
+      <c r="L9">
+        <v>33262</v>
+      </c>
+      <c r="M9">
+        <v>886</v>
+      </c>
+      <c r="N9">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>313730</v>
+      </c>
+      <c r="B10">
+        <v>74309</v>
+      </c>
+      <c r="C10">
+        <v>7628</v>
+      </c>
+      <c r="D10">
+        <v>438</v>
+      </c>
+      <c r="F10">
+        <v>199455</v>
+      </c>
+      <c r="G10">
+        <v>23040</v>
+      </c>
+      <c r="H10">
+        <v>947</v>
+      </c>
+      <c r="I10">
+        <v>396</v>
+      </c>
+      <c r="K10">
+        <v>200581</v>
+      </c>
+      <c r="L10">
+        <v>24249</v>
+      </c>
+      <c r="M10">
+        <v>814</v>
+      </c>
+      <c r="N10">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>317370</v>
+      </c>
+      <c r="B11">
+        <v>76067</v>
+      </c>
+      <c r="C11">
+        <v>7676</v>
+      </c>
+      <c r="D11">
+        <v>438</v>
+      </c>
+      <c r="F11">
+        <v>254796</v>
+      </c>
+      <c r="G11">
+        <v>30513</v>
+      </c>
+      <c r="H11">
+        <v>929</v>
+      </c>
+      <c r="I11">
+        <v>396</v>
+      </c>
+      <c r="K11">
+        <v>256813</v>
+      </c>
+      <c r="L11">
+        <v>29860</v>
+      </c>
+      <c r="M11">
+        <v>863</v>
+      </c>
+      <c r="N11">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>317180</v>
+      </c>
+      <c r="B12">
+        <v>74957</v>
+      </c>
+      <c r="C12">
+        <v>7706</v>
+      </c>
+      <c r="D12">
+        <v>426</v>
+      </c>
+      <c r="F12">
+        <v>317180</v>
+      </c>
+      <c r="G12">
+        <v>74957</v>
+      </c>
+      <c r="H12">
+        <v>7706</v>
+      </c>
+      <c r="I12">
+        <v>426</v>
+      </c>
+      <c r="K12">
+        <v>240482</v>
+      </c>
+      <c r="L12">
+        <v>28862</v>
+      </c>
+      <c r="M12">
+        <v>824</v>
+      </c>
+      <c r="N12">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>320120</v>
+      </c>
+      <c r="B13">
+        <v>75857</v>
+      </c>
+      <c r="C13">
+        <v>7801</v>
+      </c>
+      <c r="D13">
+        <v>432</v>
+      </c>
+      <c r="F13">
+        <v>242820</v>
+      </c>
+      <c r="G13">
+        <v>32141</v>
+      </c>
+      <c r="H13">
+        <v>1452</v>
+      </c>
+      <c r="I13">
+        <v>396</v>
+      </c>
+      <c r="K13">
+        <v>255347</v>
+      </c>
+      <c r="L13">
+        <v>33021</v>
+      </c>
+      <c r="M13">
+        <v>852</v>
+      </c>
+      <c r="N13">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>730</v>
+      </c>
+      <c r="B17">
+        <v>752</v>
+      </c>
+      <c r="C17">
+        <v>766</v>
+      </c>
+      <c r="D17">
+        <v>504</v>
+      </c>
+      <c r="F17">
+        <v>730</v>
+      </c>
+      <c r="G17">
+        <v>752</v>
+      </c>
+      <c r="H17">
+        <v>766</v>
+      </c>
+      <c r="I17">
+        <v>504</v>
+      </c>
+      <c r="K17">
+        <v>730</v>
+      </c>
+      <c r="L17">
+        <v>752</v>
+      </c>
+      <c r="M17">
+        <v>766</v>
+      </c>
+      <c r="N17">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>758</v>
+      </c>
+      <c r="B18">
+        <v>764</v>
+      </c>
+      <c r="C18">
+        <v>778</v>
+      </c>
+      <c r="D18">
+        <v>500</v>
+      </c>
+      <c r="F18">
+        <v>1968</v>
+      </c>
+      <c r="G18">
+        <v>2448</v>
+      </c>
+      <c r="H18">
+        <v>3122</v>
+      </c>
+      <c r="I18">
+        <v>1992</v>
+      </c>
+      <c r="K18">
+        <v>1968</v>
+      </c>
+      <c r="L18">
+        <v>2448</v>
+      </c>
+      <c r="M18">
+        <v>3122</v>
+      </c>
+      <c r="N18">
+        <v>1992</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>756</v>
+      </c>
+      <c r="B19">
+        <v>762</v>
+      </c>
+      <c r="C19">
+        <v>770</v>
+      </c>
+      <c r="D19">
+        <v>500</v>
+      </c>
+      <c r="F19">
+        <v>2050</v>
+      </c>
+      <c r="G19">
+        <v>2402</v>
+      </c>
+      <c r="H19">
+        <v>2902</v>
+      </c>
+      <c r="I19">
+        <v>1994</v>
+      </c>
+      <c r="K19">
+        <v>2050</v>
+      </c>
+      <c r="L19">
+        <v>2402</v>
+      </c>
+      <c r="M19">
+        <v>2902</v>
+      </c>
+      <c r="N19">
+        <v>1994</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>744</v>
+      </c>
+      <c r="B20">
+        <v>748</v>
+      </c>
+      <c r="C20">
+        <v>756</v>
+      </c>
+      <c r="D20">
+        <v>508</v>
+      </c>
+      <c r="F20">
+        <v>1970</v>
+      </c>
+      <c r="G20">
+        <v>2220</v>
+      </c>
+      <c r="H20">
+        <v>2934</v>
+      </c>
+      <c r="I20">
+        <v>2024</v>
+      </c>
+      <c r="K20">
+        <v>1970</v>
+      </c>
+      <c r="L20">
+        <v>2220</v>
+      </c>
+      <c r="M20">
+        <v>2934</v>
+      </c>
+      <c r="N20">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>756</v>
+      </c>
+      <c r="B21">
+        <v>772</v>
+      </c>
+      <c r="C21">
+        <v>754</v>
+      </c>
+      <c r="D21">
+        <v>512</v>
+      </c>
+      <c r="F21">
+        <v>756</v>
+      </c>
+      <c r="G21">
+        <v>772</v>
+      </c>
+      <c r="H21">
+        <v>754</v>
+      </c>
+      <c r="I21">
+        <v>512</v>
+      </c>
+      <c r="K21">
+        <v>2006</v>
+      </c>
+      <c r="L21">
+        <v>2318</v>
+      </c>
+      <c r="M21">
+        <v>2944</v>
+      </c>
+      <c r="N21">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>752</v>
+      </c>
+      <c r="B22">
+        <v>778</v>
+      </c>
+      <c r="C22">
+        <v>754</v>
+      </c>
+      <c r="D22">
+        <v>500</v>
+      </c>
+      <c r="F22">
+        <v>1872</v>
+      </c>
+      <c r="G22">
+        <v>2348</v>
+      </c>
+      <c r="H22">
+        <v>3128</v>
+      </c>
+      <c r="I22">
+        <v>1938</v>
+      </c>
+      <c r="K22">
+        <v>1968</v>
+      </c>
+      <c r="L22">
+        <v>2324</v>
+      </c>
+      <c r="M22">
+        <v>2972</v>
+      </c>
+      <c r="N22">
+        <v>1956</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>772</v>
+      </c>
+      <c r="B23">
+        <v>776</v>
+      </c>
+      <c r="C23">
+        <v>756</v>
+      </c>
+      <c r="D23">
+        <v>496</v>
+      </c>
+      <c r="F23">
+        <v>1796</v>
+      </c>
+      <c r="G23">
+        <v>2130</v>
+      </c>
+      <c r="H23">
+        <v>3014</v>
+      </c>
+      <c r="I23">
+        <v>1996</v>
+      </c>
+      <c r="K23">
+        <v>1782</v>
+      </c>
+      <c r="L23">
+        <v>2050</v>
+      </c>
+      <c r="M23">
+        <v>2866</v>
+      </c>
+      <c r="N23">
+        <v>1828</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>750</v>
+      </c>
+      <c r="B24">
+        <v>762</v>
+      </c>
+      <c r="C24">
+        <v>746</v>
+      </c>
+      <c r="D24">
+        <v>496</v>
+      </c>
+      <c r="F24">
+        <v>1974</v>
+      </c>
+      <c r="G24">
+        <v>2378</v>
+      </c>
+      <c r="H24">
+        <v>2996</v>
+      </c>
+      <c r="I24">
+        <v>1946</v>
+      </c>
+      <c r="K24">
+        <v>1976</v>
+      </c>
+      <c r="L24">
+        <v>2338</v>
+      </c>
+      <c r="M24">
+        <v>2854</v>
+      </c>
+      <c r="N24">
+        <v>1766</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>762</v>
+      </c>
+      <c r="B25">
+        <v>750</v>
+      </c>
+      <c r="C25">
+        <v>792</v>
+      </c>
+      <c r="D25">
+        <v>480</v>
+      </c>
+      <c r="F25">
+        <v>762</v>
+      </c>
+      <c r="G25">
+        <v>750</v>
+      </c>
+      <c r="H25">
+        <v>792</v>
+      </c>
+      <c r="I25">
+        <v>480</v>
+      </c>
+      <c r="K25">
+        <v>1846</v>
+      </c>
+      <c r="L25">
+        <v>2152</v>
+      </c>
+      <c r="M25">
+        <v>2798</v>
+      </c>
+      <c r="N25">
+        <v>1766</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>726</v>
+      </c>
+      <c r="B26">
+        <v>738</v>
+      </c>
+      <c r="C26">
+        <v>742</v>
+      </c>
+      <c r="D26">
+        <v>488</v>
+      </c>
+      <c r="F26">
+        <v>1862</v>
+      </c>
+      <c r="G26">
+        <v>2250</v>
+      </c>
+      <c r="H26">
+        <v>3134</v>
+      </c>
+      <c r="I26">
+        <v>1838</v>
+      </c>
+      <c r="K26">
+        <v>1938</v>
+      </c>
+      <c r="L26">
+        <v>2342</v>
+      </c>
+      <c r="M26">
+        <v>2688</v>
+      </c>
+      <c r="N26">
+        <v>1768</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N29" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>33.708862000000003</v>
+      </c>
+      <c r="B30">
+        <v>29.964456999999999</v>
+      </c>
+      <c r="C30">
+        <v>24.756713999999999</v>
+      </c>
+      <c r="D30">
+        <v>16.780684999999998</v>
+      </c>
+      <c r="F30">
+        <v>33.708862000000003</v>
+      </c>
+      <c r="G30">
+        <v>29.964456999999999</v>
+      </c>
+      <c r="H30">
+        <v>24.756713999999999</v>
+      </c>
+      <c r="I30">
+        <v>16.780684999999998</v>
+      </c>
+      <c r="K30">
+        <v>33.708862000000003</v>
+      </c>
+      <c r="L30">
+        <v>29.964456999999999</v>
+      </c>
+      <c r="M30">
+        <v>24.756713999999999</v>
+      </c>
+      <c r="N30">
+        <v>16.780684999999998</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>34.120361000000003</v>
+      </c>
+      <c r="B31">
+        <v>29.683883999999999</v>
+      </c>
+      <c r="C31">
+        <v>24.80423</v>
+      </c>
+      <c r="D31">
+        <v>16.633581</v>
+      </c>
+      <c r="F31">
+        <v>33.058337999999999</v>
+      </c>
+      <c r="G31">
+        <v>30.014275000000001</v>
+      </c>
+      <c r="H31">
+        <v>25.317368999999999</v>
+      </c>
+      <c r="I31">
+        <v>17.051704000000001</v>
+      </c>
+      <c r="K31">
+        <v>33.058337999999999</v>
+      </c>
+      <c r="L31">
+        <v>30.014275000000001</v>
+      </c>
+      <c r="M31">
+        <v>25.317368999999999</v>
+      </c>
+      <c r="N31">
+        <v>17.051704000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>33.639225000000003</v>
+      </c>
+      <c r="B32">
+        <v>30.075036999999998</v>
+      </c>
+      <c r="C32">
+        <v>24.727744999999999</v>
+      </c>
+      <c r="D32">
+        <v>16.624099999999999</v>
+      </c>
+      <c r="F32">
+        <v>33.038017000000004</v>
+      </c>
+      <c r="G32">
+        <v>29.728591999999999</v>
+      </c>
+      <c r="H32">
+        <v>25.491802</v>
+      </c>
+      <c r="I32">
+        <v>17.263324999999998</v>
+      </c>
+      <c r="K32">
+        <v>33.038017000000004</v>
+      </c>
+      <c r="L32">
+        <v>29.728591999999999</v>
+      </c>
+      <c r="M32">
+        <v>25.491802</v>
+      </c>
+      <c r="N32">
+        <v>17.263324999999998</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>33.419682000000002</v>
+      </c>
+      <c r="B33">
+        <v>29.971406999999999</v>
+      </c>
+      <c r="C33">
+        <v>24.604351000000001</v>
+      </c>
+      <c r="D33">
+        <v>16.763290000000001</v>
+      </c>
+      <c r="F33">
+        <v>32.939011000000001</v>
+      </c>
+      <c r="G33">
+        <v>29.379180999999999</v>
+      </c>
+      <c r="H33">
+        <v>25.496673999999999</v>
+      </c>
+      <c r="I33">
+        <v>17.492327</v>
+      </c>
+      <c r="K33">
+        <v>32.939011000000001</v>
+      </c>
+      <c r="L33">
+        <v>29.379180999999999</v>
+      </c>
+      <c r="M33">
+        <v>25.496673999999999</v>
+      </c>
+      <c r="N33">
+        <v>17.492327</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>33.338515999999998</v>
+      </c>
+      <c r="B34">
+        <v>30.440104000000002</v>
+      </c>
+      <c r="C34">
+        <v>24.515469</v>
+      </c>
+      <c r="D34">
+        <v>16.767727000000001</v>
+      </c>
+      <c r="F34">
+        <v>33.338515999999998</v>
+      </c>
+      <c r="G34">
+        <v>30.440104000000002</v>
+      </c>
+      <c r="H34">
+        <v>24.515469</v>
+      </c>
+      <c r="I34">
+        <v>16.767727000000001</v>
+      </c>
+      <c r="K34">
+        <v>32.670890999999997</v>
+      </c>
+      <c r="L34">
+        <v>29.534590000000001</v>
+      </c>
+      <c r="M34">
+        <v>25.580942</v>
+      </c>
+      <c r="N34">
+        <v>17.696299</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>33.522120999999999</v>
+      </c>
+      <c r="B35">
+        <v>29.633247000000001</v>
+      </c>
+      <c r="C35">
+        <v>24.632418000000001</v>
+      </c>
+      <c r="D35">
+        <v>16.655169999999998</v>
+      </c>
+      <c r="F35">
+        <v>33.062843000000001</v>
+      </c>
+      <c r="G35">
+        <v>30.177292000000001</v>
+      </c>
+      <c r="H35">
+        <v>25.146647999999999</v>
+      </c>
+      <c r="I35">
+        <v>17.062930999999999</v>
+      </c>
+      <c r="K35">
+        <v>32.728233000000003</v>
+      </c>
+      <c r="L35">
+        <v>29.39349</v>
+      </c>
+      <c r="M35">
+        <v>25.578673999999999</v>
+      </c>
+      <c r="N35">
+        <v>17.792618000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>33.602469999999997</v>
+      </c>
+      <c r="B36">
+        <v>29.951128000000001</v>
+      </c>
+      <c r="C36">
+        <v>24.602323999999999</v>
+      </c>
+      <c r="D36">
+        <v>16.665899</v>
+      </c>
+      <c r="F36">
+        <v>32.974358000000002</v>
+      </c>
+      <c r="G36">
+        <v>30.225372</v>
+      </c>
+      <c r="H36">
+        <v>25.349422000000001</v>
+      </c>
+      <c r="I36">
+        <v>17.283339999999999</v>
+      </c>
+      <c r="K36">
+        <v>32.909053999999998</v>
+      </c>
+      <c r="L36">
+        <v>29.467676000000001</v>
+      </c>
+      <c r="M36">
+        <v>25.54167</v>
+      </c>
+      <c r="N36">
+        <v>17.783245000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>34.025306999999998</v>
+      </c>
+      <c r="B37">
+        <v>29.966553000000001</v>
+      </c>
+      <c r="C37">
+        <v>24.516148000000001</v>
+      </c>
+      <c r="D37">
+        <v>16.629339000000002</v>
+      </c>
+      <c r="F37">
+        <v>32.774475000000002</v>
+      </c>
+      <c r="G37">
+        <v>29.882588999999999</v>
+      </c>
+      <c r="H37">
+        <v>25.482714000000001</v>
+      </c>
+      <c r="I37">
+        <v>17.458888999999999</v>
+      </c>
+      <c r="K37">
+        <v>32.958599</v>
+      </c>
+      <c r="L37">
+        <v>29.515101999999999</v>
+      </c>
+      <c r="M37">
+        <v>25.593788</v>
+      </c>
+      <c r="N37">
+        <v>17.735598</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>32.572932999999999</v>
+      </c>
+      <c r="B38">
+        <v>30.055256</v>
+      </c>
+      <c r="C38">
+        <v>24.667276000000001</v>
+      </c>
+      <c r="D38">
+        <v>16.652951999999999</v>
+      </c>
+      <c r="F38">
+        <v>32.572932999999999</v>
+      </c>
+      <c r="G38">
+        <v>30.055256</v>
+      </c>
+      <c r="H38">
+        <v>24.667276000000001</v>
+      </c>
+      <c r="I38">
+        <v>16.652951999999999</v>
+      </c>
+      <c r="K38">
+        <v>32.54533</v>
+      </c>
+      <c r="L38">
+        <v>29.429565</v>
+      </c>
+      <c r="M38">
+        <v>25.613285000000001</v>
+      </c>
+      <c r="N38">
+        <v>17.726906</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>33.883343000000004</v>
+      </c>
+      <c r="B39">
+        <v>29.914805999999999</v>
+      </c>
+      <c r="C39">
+        <v>24.175726000000001</v>
+      </c>
+      <c r="D39">
+        <v>16.598837</v>
+      </c>
+      <c r="F39">
+        <v>32.794345999999997</v>
+      </c>
+      <c r="G39">
+        <v>29.895008000000001</v>
+      </c>
+      <c r="H39">
+        <v>25.185898000000002</v>
+      </c>
+      <c r="I39">
+        <v>16.876165</v>
+      </c>
+      <c r="K39">
+        <v>32.920836999999999</v>
+      </c>
+      <c r="L39">
+        <v>29.816147000000001</v>
+      </c>
+      <c r="M39">
+        <v>25.613398</v>
+      </c>
+      <c r="N39">
+        <v>17.736011999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L42" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M42" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N42" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>111.18</v>
+      </c>
+      <c r="B43">
+        <v>111.53</v>
+      </c>
+      <c r="C43">
+        <v>109.28</v>
+      </c>
+      <c r="D43">
+        <v>109.31</v>
+      </c>
+      <c r="F43">
+        <v>114.47</v>
+      </c>
+      <c r="G43">
+        <v>109.43</v>
+      </c>
+      <c r="H43">
+        <v>120.35</v>
+      </c>
+      <c r="I43">
+        <v>112.38</v>
+      </c>
+      <c r="K43">
+        <v>116.3</v>
+      </c>
+      <c r="L43">
+        <v>116.71</v>
+      </c>
+      <c r="M43">
+        <v>116.68</v>
+      </c>
+      <c r="N43">
+        <v>101.51</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
+      <c r="N45" s="1"/>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>3131521</v>
+      </c>
+      <c r="B46">
+        <v>746552</v>
+      </c>
+      <c r="C46">
+        <v>76758</v>
+      </c>
+      <c r="D46">
+        <v>4404</v>
+      </c>
+      <c r="F46">
+        <v>2606962</v>
+      </c>
+      <c r="G46">
+        <v>443038</v>
+      </c>
+      <c r="H46">
+        <v>31098</v>
+      </c>
+      <c r="I46">
+        <v>4104</v>
+      </c>
+      <c r="K46">
+        <v>2491490</v>
+      </c>
+      <c r="L46">
+        <v>356085</v>
+      </c>
+      <c r="M46">
+        <v>16532</v>
+      </c>
+      <c r="N46">
+        <v>4020</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L47" s="1"/>
+      <c r="M47" s="1"/>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>7506</v>
+      </c>
+      <c r="B48">
+        <v>7602</v>
+      </c>
+      <c r="C48">
+        <v>7614</v>
+      </c>
+      <c r="D48">
+        <v>4984</v>
+      </c>
+      <c r="F48">
+        <v>15740</v>
+      </c>
+      <c r="G48">
+        <v>18450</v>
+      </c>
+      <c r="H48">
+        <v>23542</v>
+      </c>
+      <c r="I48">
+        <v>15224</v>
+      </c>
+      <c r="K48">
+        <v>18234</v>
+      </c>
+      <c r="L48">
+        <v>21346</v>
+      </c>
+      <c r="M48">
+        <v>26846</v>
+      </c>
+      <c r="N48">
+        <v>17598</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>3139027</v>
+      </c>
+      <c r="B50">
+        <v>754154</v>
+      </c>
+      <c r="C50">
+        <v>84372</v>
+      </c>
+      <c r="D50">
+        <v>9388</v>
+      </c>
+      <c r="F50">
+        <v>2622702</v>
+      </c>
+      <c r="G50">
+        <v>461488</v>
+      </c>
+      <c r="H50">
+        <v>54640</v>
+      </c>
+      <c r="I50">
+        <v>19328</v>
+      </c>
+      <c r="K50">
+        <v>2509724</v>
+      </c>
+      <c r="L50">
+        <v>377431</v>
+      </c>
+      <c r="M50">
+        <v>43378</v>
+      </c>
+      <c r="N50">
+        <v>21618</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1"/>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>33.583281999999997</v>
+      </c>
+      <c r="B52">
+        <v>29.965587899999999</v>
+      </c>
+      <c r="C52">
+        <v>24.600240100000001</v>
+      </c>
+      <c r="D52">
+        <v>16.677157999999999</v>
+      </c>
+      <c r="F52">
+        <v>33.026169899999999</v>
+      </c>
+      <c r="G52">
+        <v>29.9762126</v>
+      </c>
+      <c r="H52">
+        <v>25.1409986</v>
+      </c>
+      <c r="I52">
+        <v>17.069004499999998</v>
+      </c>
+      <c r="K52">
+        <v>32.9477172</v>
+      </c>
+      <c r="L52">
+        <v>29.6243075</v>
+      </c>
+      <c r="M52">
+        <v>25.458431600000001</v>
+      </c>
+      <c r="N52">
+        <v>17.505871899999999</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H54" s="1"/>
+      <c r="I54" s="1"/>
+      <c r="J54" s="1"/>
+      <c r="K54" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L54" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>3139027</v>
+      </c>
+      <c r="B55">
+        <v>33.583281999999997</v>
+      </c>
+      <c r="F55">
+        <v>2622702</v>
+      </c>
+      <c r="G55">
+        <v>33.026169899999999</v>
+      </c>
+      <c r="K55">
+        <v>2509724</v>
+      </c>
+      <c r="L55">
+        <v>32.9477172</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>754154</v>
+      </c>
+      <c r="B56">
+        <v>29.965587899999999</v>
+      </c>
+      <c r="F56">
+        <v>461488</v>
+      </c>
+      <c r="G56">
+        <v>29.976212600000004</v>
+      </c>
+      <c r="K56">
+        <v>377431</v>
+      </c>
+      <c r="L56">
+        <v>29.624307500000004</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>84372</v>
+      </c>
+      <c r="B57">
+        <v>24.600240100000001</v>
+      </c>
+      <c r="F57">
+        <v>54640</v>
+      </c>
+      <c r="G57">
+        <v>25.1409986</v>
+      </c>
+      <c r="K57">
+        <v>43378</v>
+      </c>
+      <c r="L57">
+        <v>25.458431600000001</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>9388</v>
+      </c>
+      <c r="B58">
+        <v>16.677157999999999</v>
+      </c>
+      <c r="F58">
+        <v>19328</v>
+      </c>
+      <c r="G58">
+        <v>17.069004499999998</v>
+      </c>
+      <c r="K58">
+        <v>21618</v>
+      </c>
+      <c r="L58">
+        <v>17.505871900000002</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/goldendata/Assignment2Part1NoRDO/Part1_RDO_Disabled_Testdata.xlsx
+++ b/goldendata/Assignment2Part1NoRDO/Part1_RDO_Disabled_Testdata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="31">
   <si>
     <t>Block = 8</t>
   </si>
@@ -104,12 +104,18 @@
   <si>
     <t>Execution Time</t>
   </si>
+  <si>
+    <t>Avg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Block </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -125,16 +131,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -142,19 +160,84 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="1" builtinId="10"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -204,7 +287,15 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>RD plot i=16,</a:t>
+              <a:t>Rate</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Distortion P</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>lot i=16,</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
@@ -487,11 +578,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="391277632"/>
-        <c:axId val="391279592"/>
+        <c:axId val="490776960"/>
+        <c:axId val="490780488"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="391277632"/>
+        <c:axId val="490776960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -604,12 +695,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="391279592"/>
+        <c:crossAx val="490780488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="391279592"/>
+        <c:axId val="490780488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -722,7 +813,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="391277632"/>
+        <c:crossAx val="490776960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -838,11 +929,19 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>RD plot</a:t>
+              <a:t>Rate</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> i=8, r=2 RDO Disabled</a:t>
+              <a:t> Distortion P</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>lot</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> i=8, r=2, RDO Disabled</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -1114,11 +1213,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="391281552"/>
-        <c:axId val="392653792"/>
+        <c:axId val="490784408"/>
+        <c:axId val="490785976"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="391281552"/>
+        <c:axId val="490784408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1231,12 +1330,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="392653792"/>
+        <c:crossAx val="490785976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="392653792"/>
+        <c:axId val="490785976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1349,7 +1448,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="391281552"/>
+        <c:crossAx val="490784408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1627,11 +1726,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="392655360"/>
-        <c:axId val="392654184"/>
+        <c:axId val="490784016"/>
+        <c:axId val="490785192"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="392655360"/>
+        <c:axId val="490784016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1749,12 +1848,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="392654184"/>
+        <c:crossAx val="490785192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="392654184"/>
+        <c:axId val="490785192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1867,7 +1966,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="392655360"/>
+        <c:crossAx val="490784016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4000,8 +4099,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K31" sqref="K31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L34" sqref="L34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4031,22 +4130,22 @@
       <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -4155,22 +4254,22 @@
       <c r="F10" s="2"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F11" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -4268,42 +4367,44 @@
       <c r="I18" s="2"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1" t="s">
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="7"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+      <c r="A20" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F20" t="s">
+      <c r="E20" s="3"/>
+      <c r="F20" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G20" t="s">
+      <c r="G20" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H20" t="s">
+      <c r="H20" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I20" t="s">
+      <c r="I20" s="3" t="s">
         <v>14</v>
       </c>
     </row>
@@ -4334,28 +4435,29 @@
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+      <c r="A22" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F22" t="s">
+      <c r="E22" s="3"/>
+      <c r="F22" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G22" t="s">
+      <c r="G22" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H22" t="s">
+      <c r="H22" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I22" t="s">
+      <c r="I22" s="3" t="s">
         <v>14</v>
       </c>
     </row>
@@ -4386,28 +4488,29 @@
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
+      <c r="A24" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F24" t="s">
+      <c r="E24" s="3"/>
+      <c r="F24" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G24" t="s">
+      <c r="G24" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H24" t="s">
+      <c r="H24" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I24" t="s">
+      <c r="I24" s="3" t="s">
         <v>14</v>
       </c>
     </row>
@@ -4437,6 +4540,25 @@
         <v>101.51</v>
       </c>
     </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+    </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>8</v>
@@ -4454,7 +4576,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="11">
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="A19:D19"/>
     <mergeCell ref="A18:I18"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="C10:D10"/>
@@ -4474,7 +4598,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N58"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="N56" sqref="N56"/>
     </sheetView>
   </sheetViews>

--- a/goldendata/Assignment2Part1NoRDO/Part1_RDO_Disabled_Testdata.xlsx
+++ b/goldendata/Assignment2Part1NoRDO/Part1_RDO_Disabled_Testdata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,11 +12,12 @@
     <sheet name="Block 16" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="32">
   <si>
     <t>Block = 8</t>
   </si>
@@ -109,6 +110,9 @@
   </si>
   <si>
     <t xml:space="preserve">Block </t>
+  </si>
+  <si>
+    <t>Bitcount</t>
   </si>
 </sst>
 </file>
@@ -220,9 +224,6 @@
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -232,6 +233,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -578,11 +582,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="490776960"/>
-        <c:axId val="490780488"/>
+        <c:axId val="478278760"/>
+        <c:axId val="478284640"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="490776960"/>
+        <c:axId val="478278760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -695,12 +699,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="490780488"/>
+        <c:crossAx val="478284640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="490780488"/>
+        <c:axId val="478284640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -813,7 +817,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="490776960"/>
+        <c:crossAx val="478278760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1213,11 +1217,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="490784408"/>
-        <c:axId val="490785976"/>
+        <c:axId val="478281112"/>
+        <c:axId val="478277584"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="490784408"/>
+        <c:axId val="478281112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1330,12 +1334,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="490785976"/>
+        <c:crossAx val="478277584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="490785976"/>
+        <c:axId val="478277584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1448,7 +1452,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="490784408"/>
+        <c:crossAx val="478281112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1607,116 +1611,150 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>8x8</c:v>
+            <c:v>IP_1</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="25400" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="25400">
               <a:noFill/>
-              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$27</c:f>
+              <c:f>(Sheet1!$A$27,Sheet1!$F$27)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>8</c:v>
                 </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:xVal>
-          <c:yVal>
+          </c:cat>
+          <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$27</c:f>
+              <c:f>(Sheet1!$E$21,Sheet1!$J$21)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>31.484999999999996</c:v>
+                  <c:v>33.392499999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>110.325</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
+          </c:val>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>16x16</c:v>
+            <c:v>IP_4</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="25400" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln w="25400">
               <a:noFill/>
-              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$F$27</c:f>
+              <c:f>(Sheet1!$A$27,Sheet1!$F$27)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:xVal>
-          <c:yVal>
+          </c:cat>
+          <c:val>
             <c:numRef>
-              <c:f>Sheet1!$G$27</c:f>
+              <c:f>(Sheet1!$E$23,Sheet1!$J$23)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>112.42750000000001</c:v>
+                  <c:v>30.515000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>114.1575</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>IP_10</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln w="25400">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>(Sheet1!$A$27,Sheet1!$F$27)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet1!$E$25,Sheet1!$J$25)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>30.547499999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>112.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1726,11 +1764,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="490784016"/>
-        <c:axId val="490785192"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="490784016"/>
+        <c:gapWidth val="150"/>
+        <c:axId val="478287384"/>
+        <c:axId val="478284248"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="478287384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1848,12 +1887,15 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="490785192"/>
+        <c:crossAx val="478284248"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
+      </c:catAx>
       <c:valAx>
-        <c:axId val="490785192"/>
+        <c:axId val="478284248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1966,9 +2008,9 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="490784016"/>
+        <c:crossAx val="478287384"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -1981,6 +2023,1136 @@
     <c:legend>
       <c:legendPos val="b"/>
       <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Bits</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> per Frame RDO Disabled</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>i=8,</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> QP = 3</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>IP_1</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'Block 8'!$B$61:$B$70</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>124786</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>124395</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>123983</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>123966</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>125948</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>125083</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>125862</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>126215</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>127306</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>127137</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>IP_4</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'Block 8'!$G$61:$G$70</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>124786</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>82201</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>80941</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>73658</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>125948</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>78933</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>59021</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>77752</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>127306</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>75079</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>IP_10</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'Block 8'!$L$61:$L$70</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>124786</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>82201</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>80941</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>73658</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>80182</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>79768</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>61126</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>77490</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>71524</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>75330</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="478276016"/>
+        <c:axId val="478281896"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="478276016"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Frame</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="478281896"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="478281896"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Bits</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="478276016"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Bits per Frame RDO Disabled</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>i=16,</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> QP = 4</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>IP_1</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'Block 16'!$B$61:$B$70</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>76440</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>74355</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>74438</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>75148</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>74506</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>75051</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>75085</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>76829</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>75707</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>76595</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>IP_4</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'Block 16'!$G$61:$G$70</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>76440</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>39096</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>36806</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>31458</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>74506</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>35023</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>25170</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32891</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>75707</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>34391</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>IP_10</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'Block 16'!$L$61:$L$70</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>76440</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>39096</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>36806</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>31458</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>33171</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>35586</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>26299</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32198</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>31014</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>35363</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="478285032"/>
+        <c:axId val="478276800"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="478285032"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Frame</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="478276800"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="478276800"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Bits</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="478285032"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2167,6 +3339,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -3696,6 +4948,1012 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -3749,16 +6007,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>53340</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>441960</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>83820</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>99060</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3779,16 +6037,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>99060</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>289560</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>106680</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3802,6 +6060,76 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>205740</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>510540</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>53788</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>161365</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>358588</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>35859</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4097,55 +6425,55 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I27"/>
+  <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L34" sqref="L34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2" t="s">
+      <c r="B2" s="7"/>
+      <c r="C2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2" t="s">
+      <c r="D2" s="7"/>
+      <c r="E2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="2"/>
+      <c r="F2" s="7"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>5</v>
       </c>
     </row>
@@ -4230,46 +6558,46 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2" t="s">
+      <c r="B10" s="7"/>
+      <c r="C10" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2" t="s">
+      <c r="D10" s="7"/>
+      <c r="E10" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F10" s="2"/>
+      <c r="F10" s="7"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="2" t="s">
         <v>5</v>
       </c>
     </row>
@@ -4353,62 +6681,62 @@
         <v>17.505871900000002</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="5" t="s">
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="5" t="s">
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="7"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="s">
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="6"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D20" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3" t="s">
+      <c r="E20" s="2"/>
+      <c r="F20" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G20" s="3" t="s">
+      <c r="G20" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H20" s="3" t="s">
+      <c r="H20" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I20" s="3" t="s">
+      <c r="I20" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>38.76</v>
       </c>
@@ -4421,6 +6749,10 @@
       <c r="D21">
         <v>32.049999999999997</v>
       </c>
+      <c r="E21">
+        <f>AVERAGE(A21:D21)</f>
+        <v>33.392499999999998</v>
+      </c>
       <c r="F21">
         <v>111.18</v>
       </c>
@@ -4433,35 +6765,39 @@
       <c r="I21">
         <v>109.31</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="3" t="s">
+      <c r="J21">
+        <f>AVERAGE(F21:I21)</f>
+        <v>110.325</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3" t="s">
+      <c r="E22" s="2"/>
+      <c r="F22" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G22" s="3" t="s">
+      <c r="G22" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H22" s="3" t="s">
+      <c r="H22" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I22" s="3" t="s">
+      <c r="I22" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>31.31</v>
       </c>
@@ -4474,6 +6810,10 @@
       <c r="D23">
         <v>28.75</v>
       </c>
+      <c r="E23">
+        <f>AVERAGE(A23:D23)</f>
+        <v>30.515000000000001</v>
+      </c>
       <c r="F23">
         <v>114.47</v>
       </c>
@@ -4486,35 +6826,39 @@
       <c r="I23">
         <v>112.38</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="3" t="s">
+      <c r="J23">
+        <f>AVERAGE(F23:I23)</f>
+        <v>114.1575</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D24" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3" t="s">
+      <c r="E24" s="2"/>
+      <c r="F24" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G24" s="3" t="s">
+      <c r="G24" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H24" s="3" t="s">
+      <c r="H24" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I24" s="3" t="s">
+      <c r="I24" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>30.76</v>
       </c>
@@ -4527,6 +6871,10 @@
       <c r="D25">
         <v>31.33</v>
       </c>
+      <c r="E25">
+        <f>AVERAGE(A25:D25)</f>
+        <v>30.547499999999999</v>
+      </c>
       <c r="F25">
         <v>116.3</v>
       </c>
@@ -4539,27 +6887,31 @@
       <c r="I25">
         <v>101.51</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" s="3" t="s">
+      <c r="J25">
+        <f>AVERAGE(F25:I25)</f>
+        <v>112.8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3" t="s">
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G26" s="3" t="s">
+      <c r="G26" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>8</v>
       </c>
@@ -4577,17 +6929,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A9:F9"/>
     <mergeCell ref="F19:I19"/>
     <mergeCell ref="A19:D19"/>
     <mergeCell ref="A18:I18"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="E10:F10"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="A9:F9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4596,10 +6948,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N58"/>
+  <dimension ref="A1:N70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N56" sqref="N56"/>
+    <sheetView topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L61" sqref="L61:L70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4652,7 +7004,7 @@
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -4692,7 +7044,7 @@
       <c r="A4">
         <v>423684</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="3">
         <v>121766</v>
       </c>
       <c r="C4">
@@ -4704,7 +7056,7 @@
       <c r="F4">
         <v>423684</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="3">
         <v>121766</v>
       </c>
       <c r="H4">
@@ -4716,7 +7068,7 @@
       <c r="K4">
         <v>423684</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="3">
         <v>121766</v>
       </c>
       <c r="M4">
@@ -4730,7 +7082,7 @@
       <c r="A5">
         <v>419097</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="3">
         <v>121437</v>
       </c>
       <c r="C5">
@@ -4742,7 +7094,7 @@
       <c r="F5">
         <v>356980</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="3">
         <v>72181</v>
       </c>
       <c r="H5">
@@ -4754,7 +7106,7 @@
       <c r="K5">
         <v>356980</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="3">
         <v>72181</v>
       </c>
       <c r="M5">
@@ -4768,7 +7120,7 @@
       <c r="A6">
         <v>418280</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="3">
         <v>121037</v>
       </c>
       <c r="C6">
@@ -4780,7 +7132,7 @@
       <c r="F6">
         <v>354217</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="3">
         <v>71295</v>
       </c>
       <c r="H6">
@@ -4792,7 +7144,7 @@
       <c r="K6">
         <v>354217</v>
       </c>
-      <c r="L6">
+      <c r="L6" s="3">
         <v>71295</v>
       </c>
       <c r="M6">
@@ -4806,7 +7158,7 @@
       <c r="A7">
         <v>421150</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="3">
         <v>120974</v>
       </c>
       <c r="C7">
@@ -4818,7 +7170,7 @@
       <c r="F7">
         <v>341384</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="3">
         <v>64784</v>
       </c>
       <c r="H7">
@@ -4830,7 +7182,7 @@
       <c r="K7">
         <v>341384</v>
       </c>
-      <c r="L7">
+      <c r="L7" s="3">
         <v>64784</v>
       </c>
       <c r="M7">
@@ -4844,7 +7196,7 @@
       <c r="A8">
         <v>421211</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="3">
         <v>123026</v>
       </c>
       <c r="C8">
@@ -4856,7 +7208,7 @@
       <c r="F8">
         <v>421211</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="3">
         <v>123026</v>
       </c>
       <c r="H8">
@@ -4868,7 +7220,7 @@
       <c r="K8">
         <v>360769</v>
       </c>
-      <c r="L8">
+      <c r="L8" s="3">
         <v>70866</v>
       </c>
       <c r="M8">
@@ -4882,7 +7234,7 @@
       <c r="A9">
         <v>423746</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="3">
         <v>122121</v>
       </c>
       <c r="C9">
@@ -4894,7 +7246,7 @@
       <c r="F9">
         <v>345204</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="3">
         <v>69125</v>
       </c>
       <c r="H9">
@@ -4906,7 +7258,7 @@
       <c r="K9">
         <v>357037</v>
       </c>
-      <c r="L9">
+      <c r="L9" s="3">
         <v>70420</v>
       </c>
       <c r="M9">
@@ -4920,7 +7272,7 @@
       <c r="A10">
         <v>425293</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="3">
         <v>122870</v>
       </c>
       <c r="C10">
@@ -4932,7 +7284,7 @@
       <c r="F10">
         <v>300421</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="3">
         <v>50115</v>
       </c>
       <c r="H10">
@@ -4944,7 +7296,7 @@
       <c r="K10">
         <v>304730</v>
       </c>
-      <c r="L10">
+      <c r="L10" s="3">
         <v>52490</v>
       </c>
       <c r="M10">
@@ -4958,7 +7310,7 @@
       <c r="A11">
         <v>425221</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="3">
         <v>123313</v>
       </c>
       <c r="C11">
@@ -4970,7 +7322,7 @@
       <c r="F11">
         <v>364634</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="3">
         <v>68088</v>
       </c>
       <c r="H11">
@@ -4982,7 +7334,7 @@
       <c r="K11">
         <v>367916</v>
       </c>
-      <c r="L11">
+      <c r="L11" s="3">
         <v>68064</v>
       </c>
       <c r="M11">
@@ -4996,7 +7348,7 @@
       <c r="A12">
         <v>426223</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="3">
         <v>124344</v>
       </c>
       <c r="C12">
@@ -5008,7 +7360,7 @@
       <c r="F12">
         <v>426223</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="3">
         <v>124344</v>
       </c>
       <c r="H12">
@@ -5020,7 +7372,7 @@
       <c r="K12">
         <v>348757</v>
       </c>
-      <c r="L12">
+      <c r="L12" s="3">
         <v>62492</v>
       </c>
       <c r="M12">
@@ -5034,7 +7386,7 @@
       <c r="A13">
         <v>430333</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="3">
         <v>124219</v>
       </c>
       <c r="C13">
@@ -5046,7 +7398,7 @@
       <c r="F13">
         <v>344455</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="3">
         <v>65547</v>
       </c>
       <c r="H13">
@@ -5058,7 +7410,7 @@
       <c r="K13">
         <v>359229</v>
       </c>
-      <c r="L13">
+      <c r="L13" s="3">
         <v>66072</v>
       </c>
       <c r="M13">
@@ -5067,26 +7419,31 @@
       <c r="N13">
         <v>1584</v>
       </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="L14" s="3"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="1"/>
+      <c r="B15" s="2"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G15" s="1"/>
+      <c r="G15" s="2"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="L15" s="1"/>
+      <c r="L15" s="2"/>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
     </row>
@@ -5094,7 +7451,7 @@
       <c r="A16" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C16" s="1" t="s">
@@ -5107,7 +7464,7 @@
       <c r="F16" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="G16" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H16" s="1" t="s">
@@ -5120,7 +7477,7 @@
       <c r="K16" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L16" s="1" t="s">
+      <c r="L16" s="2" t="s">
         <v>8</v>
       </c>
       <c r="M16" s="1" t="s">
@@ -5134,7 +7491,7 @@
       <c r="A17">
         <v>2948</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="3">
         <v>3020</v>
       </c>
       <c r="C17">
@@ -5146,7 +7503,7 @@
       <c r="F17">
         <v>2948</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="3">
         <v>3020</v>
       </c>
       <c r="H17">
@@ -5158,7 +7515,7 @@
       <c r="K17">
         <v>2948</v>
       </c>
-      <c r="L17">
+      <c r="L17" s="3">
         <v>3020</v>
       </c>
       <c r="M17">
@@ -5172,7 +7529,7 @@
       <c r="A18">
         <v>2898</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="3">
         <v>2958</v>
       </c>
       <c r="C18">
@@ -5184,7 +7541,7 @@
       <c r="F18">
         <v>8498</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="3">
         <v>10020</v>
       </c>
       <c r="H18">
@@ -5196,7 +7553,7 @@
       <c r="K18">
         <v>8498</v>
       </c>
-      <c r="L18">
+      <c r="L18" s="3">
         <v>10020</v>
       </c>
       <c r="M18">
@@ -5210,7 +7567,7 @@
       <c r="A19">
         <v>2946</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="3">
         <v>2946</v>
       </c>
       <c r="C19">
@@ -5222,7 +7579,7 @@
       <c r="F19">
         <v>8746</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="3">
         <v>9646</v>
       </c>
       <c r="H19">
@@ -5234,7 +7591,7 @@
       <c r="K19">
         <v>8746</v>
       </c>
-      <c r="L19">
+      <c r="L19" s="3">
         <v>9646</v>
       </c>
       <c r="M19">
@@ -5248,7 +7605,7 @@
       <c r="A20">
         <v>2924</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="3">
         <v>2992</v>
       </c>
       <c r="C20">
@@ -5260,7 +7617,7 @@
       <c r="F20">
         <v>7866</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="3">
         <v>8874</v>
       </c>
       <c r="H20">
@@ -5272,7 +7629,7 @@
       <c r="K20">
         <v>7866</v>
       </c>
-      <c r="L20">
+      <c r="L20" s="3">
         <v>8874</v>
       </c>
       <c r="M20">
@@ -5286,7 +7643,7 @@
       <c r="A21">
         <v>2966</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="3">
         <v>2922</v>
       </c>
       <c r="C21">
@@ -5298,7 +7655,7 @@
       <c r="F21">
         <v>2966</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="3">
         <v>2922</v>
       </c>
       <c r="H21">
@@ -5310,7 +7667,7 @@
       <c r="K21">
         <v>8376</v>
       </c>
-      <c r="L21">
+      <c r="L21" s="3">
         <v>9316</v>
       </c>
       <c r="M21">
@@ -5324,7 +7681,7 @@
       <c r="A22">
         <v>2938</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="3">
         <v>2962</v>
       </c>
       <c r="C22">
@@ -5336,7 +7693,7 @@
       <c r="F22">
         <v>8158</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="3">
         <v>9808</v>
       </c>
       <c r="H22">
@@ -5348,7 +7705,7 @@
       <c r="K22">
         <v>8248</v>
       </c>
-      <c r="L22">
+      <c r="L22" s="3">
         <v>9348</v>
       </c>
       <c r="M22">
@@ -5362,7 +7719,7 @@
       <c r="A23">
         <v>2904</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="3">
         <v>2992</v>
       </c>
       <c r="C23">
@@ -5374,7 +7731,7 @@
       <c r="F23">
         <v>7406</v>
       </c>
-      <c r="G23">
+      <c r="G23" s="3">
         <v>8906</v>
       </c>
       <c r="H23">
@@ -5386,7 +7743,7 @@
       <c r="K23">
         <v>7484</v>
       </c>
-      <c r="L23">
+      <c r="L23" s="3">
         <v>8636</v>
       </c>
       <c r="M23">
@@ -5400,7 +7757,7 @@
       <c r="A24">
         <v>2862</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="3">
         <v>2902</v>
       </c>
       <c r="C24">
@@ -5412,7 +7769,7 @@
       <c r="F24">
         <v>8706</v>
       </c>
-      <c r="G24">
+      <c r="G24" s="3">
         <v>9664</v>
       </c>
       <c r="H24">
@@ -5424,7 +7781,7 @@
       <c r="K24">
         <v>8624</v>
       </c>
-      <c r="L24">
+      <c r="L24" s="3">
         <v>9426</v>
       </c>
       <c r="M24">
@@ -5438,7 +7795,7 @@
       <c r="A25">
         <v>2950</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="3">
         <v>2962</v>
       </c>
       <c r="C25">
@@ -5450,7 +7807,7 @@
       <c r="F25">
         <v>2950</v>
       </c>
-      <c r="G25">
+      <c r="G25" s="3">
         <v>2962</v>
       </c>
       <c r="H25">
@@ -5462,7 +7819,7 @@
       <c r="K25">
         <v>7706</v>
       </c>
-      <c r="L25">
+      <c r="L25" s="3">
         <v>9032</v>
       </c>
       <c r="M25">
@@ -5476,7 +7833,7 @@
       <c r="A26">
         <v>2876</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="3">
         <v>2918</v>
       </c>
       <c r="C26">
@@ -5488,7 +7845,7 @@
       <c r="F26">
         <v>7754</v>
       </c>
-      <c r="G26">
+      <c r="G26" s="3">
         <v>9532</v>
       </c>
       <c r="H26">
@@ -5500,7 +7857,7 @@
       <c r="K26">
         <v>7844</v>
       </c>
-      <c r="L26">
+      <c r="L26" s="3">
         <v>9258</v>
       </c>
       <c r="M26">
@@ -5509,26 +7866,31 @@
       <c r="N26">
         <v>7654</v>
       </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="L27" s="3"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B28" s="1"/>
+      <c r="B28" s="2"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G28" s="1"/>
+      <c r="G28" s="2"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="L28" s="1"/>
+      <c r="L28" s="2"/>
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
     </row>
@@ -5536,7 +7898,7 @@
       <c r="A29" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C29" s="1" t="s">
@@ -5549,7 +7911,7 @@
       <c r="F29" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G29" s="1" t="s">
+      <c r="G29" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H29" s="1" t="s">
@@ -5562,7 +7924,7 @@
       <c r="K29" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L29" s="1" t="s">
+      <c r="L29" s="2" t="s">
         <v>8</v>
       </c>
       <c r="M29" s="1" t="s">
@@ -5576,7 +7938,7 @@
       <c r="A30">
         <v>37.880038999999996</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="3">
         <v>31.187199</v>
       </c>
       <c r="C30">
@@ -5588,7 +7950,7 @@
       <c r="F30">
         <v>37.880038999999996</v>
       </c>
-      <c r="G30">
+      <c r="G30" s="3">
         <v>31.187199</v>
       </c>
       <c r="H30">
@@ -5600,7 +7962,7 @@
       <c r="K30">
         <v>37.880038999999996</v>
       </c>
-      <c r="L30">
+      <c r="L30" s="3">
         <v>31.187199</v>
       </c>
       <c r="M30">
@@ -5614,7 +7976,7 @@
       <c r="A31">
         <v>37.397551999999997</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="3">
         <v>31.12059</v>
       </c>
       <c r="C31">
@@ -5626,7 +7988,7 @@
       <c r="F31">
         <v>37.822735000000002</v>
       </c>
-      <c r="G31">
+      <c r="G31" s="3">
         <v>31.535202000000002</v>
       </c>
       <c r="H31">
@@ -5638,7 +8000,7 @@
       <c r="K31">
         <v>37.822735000000002</v>
       </c>
-      <c r="L31">
+      <c r="L31" s="3">
         <v>31.535202000000002</v>
       </c>
       <c r="M31">
@@ -5652,7 +8014,7 @@
       <c r="A32">
         <v>37.164703000000003</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="3">
         <v>31.198170000000001</v>
       </c>
       <c r="C32">
@@ -5664,7 +8026,7 @@
       <c r="F32">
         <v>37.798752</v>
       </c>
-      <c r="G32">
+      <c r="G32" s="3">
         <v>31.604728999999999</v>
       </c>
       <c r="H32">
@@ -5676,7 +8038,7 @@
       <c r="K32">
         <v>37.798752</v>
       </c>
-      <c r="L32">
+      <c r="L32" s="3">
         <v>31.604728999999999</v>
       </c>
       <c r="M32">
@@ -5690,7 +8052,7 @@
       <c r="A33">
         <v>37.627673999999999</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="3">
         <v>31.254798999999998</v>
       </c>
       <c r="C33">
@@ -5702,7 +8064,7 @@
       <c r="F33">
         <v>38.061965999999998</v>
       </c>
-      <c r="G33">
+      <c r="G33" s="3">
         <v>31.513731</v>
       </c>
       <c r="H33">
@@ -5714,7 +8076,7 @@
       <c r="K33">
         <v>38.061965999999998</v>
       </c>
-      <c r="L33">
+      <c r="L33" s="3">
         <v>31.513731</v>
       </c>
       <c r="M33">
@@ -5728,7 +8090,7 @@
       <c r="A34">
         <v>38.451855000000002</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="3">
         <v>30.716206</v>
       </c>
       <c r="C34">
@@ -5740,7 +8102,7 @@
       <c r="F34">
         <v>38.451855000000002</v>
       </c>
-      <c r="G34">
+      <c r="G34" s="3">
         <v>30.716206</v>
       </c>
       <c r="H34">
@@ -5752,7 +8114,7 @@
       <c r="K34">
         <v>37.768104999999998</v>
       </c>
-      <c r="L34">
+      <c r="L34" s="3">
         <v>31.647970000000001</v>
       </c>
       <c r="M34">
@@ -5766,7 +8128,7 @@
       <c r="A35">
         <v>38.437607</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="3">
         <v>31.303554999999999</v>
       </c>
       <c r="C35">
@@ -5778,7 +8140,7 @@
       <c r="F35">
         <v>38.383975999999997</v>
       </c>
-      <c r="G35">
+      <c r="G35" s="3">
         <v>31.301732999999999</v>
       </c>
       <c r="H35">
@@ -5790,7 +8152,7 @@
       <c r="K35">
         <v>37.758102000000001</v>
       </c>
-      <c r="L35">
+      <c r="L35" s="3">
         <v>31.489567000000001</v>
       </c>
       <c r="M35">
@@ -5804,7 +8166,7 @@
       <c r="A36">
         <v>37.879821999999997</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="3">
         <v>31.290668</v>
       </c>
       <c r="C36">
@@ -5816,7 +8178,7 @@
       <c r="F36">
         <v>37.838028000000001</v>
       </c>
-      <c r="G36">
+      <c r="G36" s="3">
         <v>31.367823000000001</v>
       </c>
       <c r="H36">
@@ -5828,7 +8190,7 @@
       <c r="K36">
         <v>37.785141000000003</v>
       </c>
-      <c r="L36">
+      <c r="L36" s="3">
         <v>31.711213999999998</v>
       </c>
       <c r="M36">
@@ -5842,7 +8204,7 @@
       <c r="A37">
         <v>37.872917000000001</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="3">
         <v>31.058554000000001</v>
       </c>
       <c r="C37">
@@ -5854,7 +8216,7 @@
       <c r="F37">
         <v>37.770995999999997</v>
       </c>
-      <c r="G37">
+      <c r="G37" s="3">
         <v>31.705606</v>
       </c>
       <c r="H37">
@@ -5866,7 +8228,7 @@
       <c r="K37">
         <v>37.741622999999997</v>
       </c>
-      <c r="L37">
+      <c r="L37" s="3">
         <v>31.906233</v>
       </c>
       <c r="M37">
@@ -5880,7 +8242,7 @@
       <c r="A38">
         <v>38.733325999999998</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="3">
         <v>31.629612000000002</v>
       </c>
       <c r="C38">
@@ -5892,7 +8254,7 @@
       <c r="F38">
         <v>38.733325999999998</v>
       </c>
-      <c r="G38">
+      <c r="G38" s="3">
         <v>31.629612000000002</v>
       </c>
       <c r="H38">
@@ -5904,7 +8266,7 @@
       <c r="K38">
         <v>37.043503000000001</v>
       </c>
-      <c r="L38">
+      <c r="L38" s="3">
         <v>31.617466</v>
       </c>
       <c r="M38">
@@ -5918,7 +8280,7 @@
       <c r="A39">
         <v>37.624186999999999</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="3">
         <v>31.151451000000002</v>
       </c>
       <c r="C39">
@@ -5930,7 +8292,7 @@
       <c r="F39">
         <v>38.685993000000003</v>
       </c>
-      <c r="G39">
+      <c r="G39" s="3">
         <v>31.530636000000001</v>
       </c>
       <c r="H39">
@@ -5942,7 +8304,7 @@
       <c r="K39">
         <v>37.247864</v>
       </c>
-      <c r="L39">
+      <c r="L39" s="3">
         <v>31.094695999999999</v>
       </c>
       <c r="M39">
@@ -5951,26 +8313,31 @@
       <c r="N39">
         <v>20.607426</v>
       </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="L40" s="3"/>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B41" s="1"/>
+      <c r="B41" s="2"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G41" s="1"/>
+      <c r="G41" s="2"/>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
       <c r="K41" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L41" s="1"/>
+      <c r="L41" s="2"/>
       <c r="M41" s="1"/>
       <c r="N41" s="1"/>
     </row>
@@ -5978,7 +8345,7 @@
       <c r="A42" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B42" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C42" s="1" t="s">
@@ -5991,7 +8358,7 @@
       <c r="F42" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G42" s="1" t="s">
+      <c r="G42" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H42" s="1" t="s">
@@ -6004,7 +8371,7 @@
       <c r="K42" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L42" s="1" t="s">
+      <c r="L42" s="2" t="s">
         <v>8</v>
       </c>
       <c r="M42" s="1" t="s">
@@ -6018,7 +8385,7 @@
       <c r="A43">
         <v>38.76</v>
       </c>
-      <c r="B43">
+      <c r="B43" s="3">
         <v>31.23</v>
       </c>
       <c r="C43">
@@ -6030,7 +8397,7 @@
       <c r="F43">
         <v>31.31</v>
       </c>
-      <c r="G43">
+      <c r="G43" s="3">
         <v>31.27</v>
       </c>
       <c r="H43">
@@ -6042,7 +8409,7 @@
       <c r="K43">
         <v>30.76</v>
       </c>
-      <c r="L43">
+      <c r="L43" s="3">
         <v>30.71</v>
       </c>
       <c r="M43">
@@ -6051,26 +8418,31 @@
       <c r="N43">
         <v>31.33</v>
       </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B44" s="3"/>
+      <c r="G44" s="3"/>
+      <c r="L44" s="3"/>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B45" s="1"/>
+      <c r="B45" s="2"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G45" s="1"/>
+      <c r="G45" s="2"/>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
       <c r="K45" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="L45" s="1"/>
+      <c r="L45" s="2"/>
       <c r="M45" s="1"/>
       <c r="N45" s="1"/>
     </row>
@@ -6078,7 +8450,7 @@
       <c r="A46">
         <v>4234238</v>
       </c>
-      <c r="B46">
+      <c r="B46" s="3">
         <v>1225107</v>
       </c>
       <c r="C46">
@@ -6090,7 +8462,7 @@
       <c r="F46">
         <v>3678413</v>
       </c>
-      <c r="G46">
+      <c r="G46" s="3">
         <v>830271</v>
       </c>
       <c r="H46">
@@ -6102,7 +8474,7 @@
       <c r="K46">
         <v>3574703</v>
       </c>
-      <c r="L46">
+      <c r="L46" s="3">
         <v>720430</v>
       </c>
       <c r="M46">
@@ -6116,21 +8488,21 @@
       <c r="A47" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B47" s="1"/>
+      <c r="B47" s="2"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
       <c r="F47" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G47" s="1"/>
+      <c r="G47" s="2"/>
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
       <c r="K47" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="L47" s="1"/>
+      <c r="L47" s="2"/>
       <c r="M47" s="1"/>
       <c r="N47" s="1"/>
     </row>
@@ -6138,7 +8510,7 @@
       <c r="A48">
         <v>29212</v>
       </c>
-      <c r="B48">
+      <c r="B48" s="3">
         <v>29574</v>
       </c>
       <c r="C48">
@@ -6150,7 +8522,7 @@
       <c r="F48">
         <v>65998</v>
       </c>
-      <c r="G48">
+      <c r="G48" s="3">
         <v>75354</v>
       </c>
       <c r="H48">
@@ -6162,7 +8534,7 @@
       <c r="K48">
         <v>76340</v>
       </c>
-      <c r="L48">
+      <c r="L48" s="3">
         <v>86576</v>
       </c>
       <c r="M48">
@@ -6176,28 +8548,28 @@
       <c r="A49" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B49" s="1"/>
+      <c r="B49" s="2"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
       <c r="F49" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G49" s="1"/>
+      <c r="G49" s="2"/>
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>
       <c r="K49" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="L49" s="1"/>
+      <c r="L49" s="2"/>
       <c r="M49" s="1"/>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>4263450</v>
       </c>
-      <c r="B50">
+      <c r="B50" s="3">
         <v>1254681</v>
       </c>
       <c r="C50">
@@ -6209,7 +8581,7 @@
       <c r="F50">
         <v>3744411</v>
       </c>
-      <c r="G50">
+      <c r="G50" s="3">
         <v>905625</v>
       </c>
       <c r="H50">
@@ -6221,7 +8593,7 @@
       <c r="K50">
         <v>3651043</v>
       </c>
-      <c r="L50">
+      <c r="L50" s="3">
         <v>807006</v>
       </c>
       <c r="M50">
@@ -6235,27 +8607,27 @@
       <c r="A51" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B51" s="1"/>
+      <c r="B51" s="2"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
       <c r="F51" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G51" s="1"/>
+      <c r="G51" s="2"/>
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
       <c r="J51" s="1"/>
       <c r="K51" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L51" s="1"/>
+      <c r="L51" s="2"/>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>37.906968200000001</v>
       </c>
-      <c r="B52">
+      <c r="B52" s="3">
         <v>31.191080400000001</v>
       </c>
       <c r="C52">
@@ -6267,7 +8639,7 @@
       <c r="F52">
         <v>38.142766600000002</v>
       </c>
-      <c r="G52">
+      <c r="G52" s="3">
         <v>31.409247700000002</v>
       </c>
       <c r="H52">
@@ -6279,7 +8651,7 @@
       <c r="K52">
         <v>37.690783000000003</v>
       </c>
-      <c r="L52">
+      <c r="L52" s="3">
         <v>31.5308007</v>
       </c>
       <c r="M52">
@@ -6288,12 +8660,15 @@
       <c r="N52">
         <v>19.818847399999999</v>
       </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B53" s="3"/>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="B54" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C54" s="1"/>
@@ -6320,7 +8695,7 @@
       <c r="A55">
         <v>4263450</v>
       </c>
-      <c r="B55">
+      <c r="B55" s="3">
         <v>37.906968200000001</v>
       </c>
       <c r="F55">
@@ -6340,7 +8715,7 @@
       <c r="A56">
         <v>1254681</v>
       </c>
-      <c r="B56">
+      <c r="B56" s="3">
         <v>31.191080400000001</v>
       </c>
       <c r="F56">
@@ -6360,7 +8735,7 @@
       <c r="A57">
         <v>202445</v>
       </c>
-      <c r="B57">
+      <c r="B57" s="3">
         <v>26.649968999999999</v>
       </c>
       <c r="F57">
@@ -6380,7 +8755,7 @@
       <c r="A58">
         <v>38717</v>
       </c>
-      <c r="B58">
+      <c r="B58" s="3">
         <v>18.3602332</v>
       </c>
       <c r="F58">
@@ -6394,20 +8769,536 @@
       </c>
       <c r="L58">
         <v>19.818847399999999</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B59" s="3"/>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A60" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B60" s="3"/>
+      <c r="F60" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K60" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <f>SUM(A4, A17)</f>
+        <v>426632</v>
+      </c>
+      <c r="B61" s="3">
+        <f t="shared" ref="B61:D61" si="0">SUM(B4, B17)</f>
+        <v>124786</v>
+      </c>
+      <c r="C61">
+        <f t="shared" si="0"/>
+        <v>20362</v>
+      </c>
+      <c r="D61">
+        <f t="shared" si="0"/>
+        <v>3910</v>
+      </c>
+      <c r="F61">
+        <f>SUM(F4,F17)</f>
+        <v>426632</v>
+      </c>
+      <c r="G61" s="3">
+        <f t="shared" ref="G61:I61" si="1">SUM(G4,G17)</f>
+        <v>124786</v>
+      </c>
+      <c r="H61">
+        <f t="shared" si="1"/>
+        <v>20362</v>
+      </c>
+      <c r="I61">
+        <f t="shared" si="1"/>
+        <v>3910</v>
+      </c>
+      <c r="K61">
+        <f>SUM(K4,K17)</f>
+        <v>426632</v>
+      </c>
+      <c r="L61" s="3">
+        <f t="shared" ref="L61:N61" si="2">SUM(L4,L17)</f>
+        <v>124786</v>
+      </c>
+      <c r="M61">
+        <f t="shared" si="2"/>
+        <v>20362</v>
+      </c>
+      <c r="N61">
+        <f t="shared" si="2"/>
+        <v>3910</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <f t="shared" ref="A62:D70" si="3">SUM(A5, A18)</f>
+        <v>421995</v>
+      </c>
+      <c r="B62" s="3">
+        <f t="shared" si="3"/>
+        <v>124395</v>
+      </c>
+      <c r="C62">
+        <f t="shared" si="3"/>
+        <v>19946</v>
+      </c>
+      <c r="D62">
+        <f t="shared" si="3"/>
+        <v>3875</v>
+      </c>
+      <c r="F62">
+        <f t="shared" ref="F62:I70" si="4">SUM(F5,F18)</f>
+        <v>365478</v>
+      </c>
+      <c r="G62" s="3">
+        <f t="shared" si="4"/>
+        <v>82201</v>
+      </c>
+      <c r="H62">
+        <f t="shared" si="4"/>
+        <v>15750</v>
+      </c>
+      <c r="I62">
+        <f t="shared" si="4"/>
+        <v>9478</v>
+      </c>
+      <c r="K62">
+        <f t="shared" ref="K62:N70" si="5">SUM(K5,K18)</f>
+        <v>365478</v>
+      </c>
+      <c r="L62" s="3">
+        <f t="shared" si="5"/>
+        <v>82201</v>
+      </c>
+      <c r="M62">
+        <f t="shared" si="5"/>
+        <v>15750</v>
+      </c>
+      <c r="N62">
+        <f t="shared" si="5"/>
+        <v>9478</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <f t="shared" si="3"/>
+        <v>421226</v>
+      </c>
+      <c r="B63" s="3">
+        <f t="shared" si="3"/>
+        <v>123983</v>
+      </c>
+      <c r="C63">
+        <f t="shared" si="3"/>
+        <v>20205</v>
+      </c>
+      <c r="D63">
+        <f t="shared" si="3"/>
+        <v>3855</v>
+      </c>
+      <c r="F63">
+        <f t="shared" si="4"/>
+        <v>362963</v>
+      </c>
+      <c r="G63" s="3">
+        <f t="shared" si="4"/>
+        <v>80941</v>
+      </c>
+      <c r="H63">
+        <f t="shared" si="4"/>
+        <v>15264</v>
+      </c>
+      <c r="I63">
+        <f t="shared" si="4"/>
+        <v>9440</v>
+      </c>
+      <c r="K63">
+        <f t="shared" si="5"/>
+        <v>362963</v>
+      </c>
+      <c r="L63" s="3">
+        <f t="shared" si="5"/>
+        <v>80941</v>
+      </c>
+      <c r="M63">
+        <f t="shared" si="5"/>
+        <v>15264</v>
+      </c>
+      <c r="N63">
+        <f t="shared" si="5"/>
+        <v>9440</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <f t="shared" si="3"/>
+        <v>424074</v>
+      </c>
+      <c r="B64" s="3">
+        <f t="shared" si="3"/>
+        <v>123966</v>
+      </c>
+      <c r="C64">
+        <f t="shared" si="3"/>
+        <v>20305</v>
+      </c>
+      <c r="D64">
+        <f t="shared" si="3"/>
+        <v>3857</v>
+      </c>
+      <c r="F64">
+        <f t="shared" si="4"/>
+        <v>349250</v>
+      </c>
+      <c r="G64" s="3">
+        <f t="shared" si="4"/>
+        <v>73658</v>
+      </c>
+      <c r="H64">
+        <f t="shared" si="4"/>
+        <v>15090</v>
+      </c>
+      <c r="I64">
+        <f t="shared" si="4"/>
+        <v>9294</v>
+      </c>
+      <c r="K64">
+        <f t="shared" si="5"/>
+        <v>349250</v>
+      </c>
+      <c r="L64" s="3">
+        <f t="shared" si="5"/>
+        <v>73658</v>
+      </c>
+      <c r="M64">
+        <f t="shared" si="5"/>
+        <v>15090</v>
+      </c>
+      <c r="N64">
+        <f t="shared" si="5"/>
+        <v>9294</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <f t="shared" si="3"/>
+        <v>424177</v>
+      </c>
+      <c r="B65" s="3">
+        <f t="shared" si="3"/>
+        <v>125948</v>
+      </c>
+      <c r="C65">
+        <f t="shared" si="3"/>
+        <v>19880</v>
+      </c>
+      <c r="D65">
+        <f t="shared" si="3"/>
+        <v>3907</v>
+      </c>
+      <c r="F65">
+        <f t="shared" si="4"/>
+        <v>424177</v>
+      </c>
+      <c r="G65" s="3">
+        <f t="shared" si="4"/>
+        <v>125948</v>
+      </c>
+      <c r="H65">
+        <f t="shared" si="4"/>
+        <v>19880</v>
+      </c>
+      <c r="I65">
+        <f t="shared" si="4"/>
+        <v>3907</v>
+      </c>
+      <c r="K65">
+        <f t="shared" si="5"/>
+        <v>369145</v>
+      </c>
+      <c r="L65" s="3">
+        <f t="shared" si="5"/>
+        <v>80182</v>
+      </c>
+      <c r="M65">
+        <f t="shared" si="5"/>
+        <v>14259</v>
+      </c>
+      <c r="N65">
+        <f t="shared" si="5"/>
+        <v>9192</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <f t="shared" si="3"/>
+        <v>426684</v>
+      </c>
+      <c r="B66" s="3">
+        <f t="shared" si="3"/>
+        <v>125083</v>
+      </c>
+      <c r="C66">
+        <f t="shared" si="3"/>
+        <v>20214</v>
+      </c>
+      <c r="D66">
+        <f t="shared" si="3"/>
+        <v>3871</v>
+      </c>
+      <c r="F66">
+        <f t="shared" si="4"/>
+        <v>353362</v>
+      </c>
+      <c r="G66" s="3">
+        <f t="shared" si="4"/>
+        <v>78933</v>
+      </c>
+      <c r="H66">
+        <f t="shared" si="4"/>
+        <v>14926</v>
+      </c>
+      <c r="I66">
+        <f t="shared" si="4"/>
+        <v>9476</v>
+      </c>
+      <c r="K66">
+        <f t="shared" si="5"/>
+        <v>365285</v>
+      </c>
+      <c r="L66" s="3">
+        <f t="shared" si="5"/>
+        <v>79768</v>
+      </c>
+      <c r="M66">
+        <f t="shared" si="5"/>
+        <v>14061</v>
+      </c>
+      <c r="N66">
+        <f t="shared" si="5"/>
+        <v>9006</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <f t="shared" si="3"/>
+        <v>428197</v>
+      </c>
+      <c r="B67" s="3">
+        <f t="shared" si="3"/>
+        <v>125862</v>
+      </c>
+      <c r="C67">
+        <f t="shared" si="3"/>
+        <v>20235</v>
+      </c>
+      <c r="D67">
+        <f t="shared" si="3"/>
+        <v>3871</v>
+      </c>
+      <c r="F67">
+        <f t="shared" si="4"/>
+        <v>307827</v>
+      </c>
+      <c r="G67" s="3">
+        <f t="shared" si="4"/>
+        <v>59021</v>
+      </c>
+      <c r="H67">
+        <f t="shared" si="4"/>
+        <v>14197</v>
+      </c>
+      <c r="I67">
+        <f t="shared" si="4"/>
+        <v>9284</v>
+      </c>
+      <c r="K67">
+        <f t="shared" si="5"/>
+        <v>312214</v>
+      </c>
+      <c r="L67" s="3">
+        <f t="shared" si="5"/>
+        <v>61126</v>
+      </c>
+      <c r="M67">
+        <f t="shared" si="5"/>
+        <v>13697</v>
+      </c>
+      <c r="N67">
+        <f t="shared" si="5"/>
+        <v>8946</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <f t="shared" si="3"/>
+        <v>428083</v>
+      </c>
+      <c r="B68" s="3">
+        <f t="shared" si="3"/>
+        <v>126215</v>
+      </c>
+      <c r="C68">
+        <f t="shared" si="3"/>
+        <v>20508</v>
+      </c>
+      <c r="D68">
+        <f t="shared" si="3"/>
+        <v>3843</v>
+      </c>
+      <c r="F68">
+        <f t="shared" si="4"/>
+        <v>373340</v>
+      </c>
+      <c r="G68" s="3">
+        <f t="shared" si="4"/>
+        <v>77752</v>
+      </c>
+      <c r="H68">
+        <f t="shared" si="4"/>
+        <v>13770</v>
+      </c>
+      <c r="I68">
+        <f t="shared" si="4"/>
+        <v>9232</v>
+      </c>
+      <c r="K68">
+        <f t="shared" si="5"/>
+        <v>376540</v>
+      </c>
+      <c r="L68" s="3">
+        <f t="shared" si="5"/>
+        <v>77490</v>
+      </c>
+      <c r="M68">
+        <f t="shared" si="5"/>
+        <v>13470</v>
+      </c>
+      <c r="N68">
+        <f t="shared" si="5"/>
+        <v>9230</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <f t="shared" si="3"/>
+        <v>429173</v>
+      </c>
+      <c r="B69" s="3">
+        <f t="shared" si="3"/>
+        <v>127306</v>
+      </c>
+      <c r="C69">
+        <f t="shared" si="3"/>
+        <v>20194</v>
+      </c>
+      <c r="D69">
+        <f t="shared" si="3"/>
+        <v>3843</v>
+      </c>
+      <c r="F69">
+        <f t="shared" si="4"/>
+        <v>429173</v>
+      </c>
+      <c r="G69" s="3">
+        <f t="shared" si="4"/>
+        <v>127306</v>
+      </c>
+      <c r="H69">
+        <f t="shared" si="4"/>
+        <v>20194</v>
+      </c>
+      <c r="I69">
+        <f t="shared" si="4"/>
+        <v>3843</v>
+      </c>
+      <c r="K69">
+        <f t="shared" si="5"/>
+        <v>356463</v>
+      </c>
+      <c r="L69" s="3">
+        <f t="shared" si="5"/>
+        <v>71524</v>
+      </c>
+      <c r="M69">
+        <f t="shared" si="5"/>
+        <v>13466</v>
+      </c>
+      <c r="N69">
+        <f t="shared" si="5"/>
+        <v>9300</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <f t="shared" si="3"/>
+        <v>433209</v>
+      </c>
+      <c r="B70" s="3">
+        <f t="shared" si="3"/>
+        <v>127137</v>
+      </c>
+      <c r="C70">
+        <f t="shared" si="3"/>
+        <v>20596</v>
+      </c>
+      <c r="D70">
+        <f t="shared" si="3"/>
+        <v>3885</v>
+      </c>
+      <c r="F70">
+        <f t="shared" si="4"/>
+        <v>352209</v>
+      </c>
+      <c r="G70" s="3">
+        <f t="shared" si="4"/>
+        <v>75079</v>
+      </c>
+      <c r="H70">
+        <f t="shared" si="4"/>
+        <v>15366</v>
+      </c>
+      <c r="I70">
+        <f t="shared" si="4"/>
+        <v>9163</v>
+      </c>
+      <c r="K70">
+        <f t="shared" si="5"/>
+        <v>367073</v>
+      </c>
+      <c r="L70" s="3">
+        <f t="shared" si="5"/>
+        <v>75330</v>
+      </c>
+      <c r="M70">
+        <f t="shared" si="5"/>
+        <v>13680</v>
+      </c>
+      <c r="N70">
+        <f t="shared" si="5"/>
+        <v>9238</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N58"/>
+  <dimension ref="A1:N70"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P56" sqref="P56"/>
+    <sheetView topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F75" sqref="F75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6500,7 +9391,7 @@
       <c r="A4">
         <v>313004</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="3">
         <v>75688</v>
       </c>
       <c r="C4">
@@ -6512,7 +9403,7 @@
       <c r="F4">
         <v>313004</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="3">
         <v>75688</v>
       </c>
       <c r="H4">
@@ -6524,7 +9415,7 @@
       <c r="K4">
         <v>313004</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="3">
         <v>75688</v>
       </c>
       <c r="M4">
@@ -6538,7 +9429,7 @@
       <c r="A5">
         <v>308062</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="3">
         <v>73591</v>
       </c>
       <c r="C5">
@@ -6550,7 +9441,7 @@
       <c r="F5">
         <v>251222</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="3">
         <v>36648</v>
       </c>
       <c r="H5">
@@ -6562,7 +9453,7 @@
       <c r="K5">
         <v>251222</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="3">
         <v>36648</v>
       </c>
       <c r="M5">
@@ -6576,7 +9467,7 @@
       <c r="A6">
         <v>307416</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="3">
         <v>73676</v>
       </c>
       <c r="C6">
@@ -6588,7 +9479,7 @@
       <c r="F6">
         <v>247312</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="3">
         <v>34404</v>
       </c>
       <c r="H6">
@@ -6600,7 +9491,7 @@
       <c r="K6">
         <v>247312</v>
       </c>
-      <c r="L6">
+      <c r="L6" s="3">
         <v>34404</v>
       </c>
       <c r="M6">
@@ -6614,7 +9505,7 @@
       <c r="A7">
         <v>311842</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="3">
         <v>74400</v>
       </c>
       <c r="C7">
@@ -6626,7 +9517,7 @@
       <c r="F7">
         <v>230013</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="3">
         <v>29238</v>
       </c>
       <c r="H7">
@@ -6638,7 +9529,7 @@
       <c r="K7">
         <v>230013</v>
       </c>
-      <c r="L7">
+      <c r="L7" s="3">
         <v>29238</v>
       </c>
       <c r="M7">
@@ -6652,7 +9543,7 @@
       <c r="A8">
         <v>310838</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="3">
         <v>73734</v>
       </c>
       <c r="C8">
@@ -6664,7 +9555,7 @@
       <c r="F8">
         <v>310838</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="3">
         <v>73734</v>
       </c>
       <c r="H8">
@@ -6676,7 +9567,7 @@
       <c r="K8">
         <v>247015</v>
       </c>
-      <c r="L8">
+      <c r="L8" s="3">
         <v>30853</v>
       </c>
       <c r="M8">
@@ -6690,7 +9581,7 @@
       <c r="A9">
         <v>311959</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="3">
         <v>74273</v>
       </c>
       <c r="C9">
@@ -6702,7 +9593,7 @@
       <c r="F9">
         <v>240322</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="3">
         <v>32675</v>
       </c>
       <c r="H9">
@@ -6714,7 +9605,7 @@
       <c r="K9">
         <v>249701</v>
       </c>
-      <c r="L9">
+      <c r="L9" s="3">
         <v>33262</v>
       </c>
       <c r="M9">
@@ -6728,7 +9619,7 @@
       <c r="A10">
         <v>313730</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="3">
         <v>74309</v>
       </c>
       <c r="C10">
@@ -6740,7 +9631,7 @@
       <c r="F10">
         <v>199455</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="3">
         <v>23040</v>
       </c>
       <c r="H10">
@@ -6752,7 +9643,7 @@
       <c r="K10">
         <v>200581</v>
       </c>
-      <c r="L10">
+      <c r="L10" s="3">
         <v>24249</v>
       </c>
       <c r="M10">
@@ -6766,7 +9657,7 @@
       <c r="A11">
         <v>317370</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="3">
         <v>76067</v>
       </c>
       <c r="C11">
@@ -6778,7 +9669,7 @@
       <c r="F11">
         <v>254796</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="3">
         <v>30513</v>
       </c>
       <c r="H11">
@@ -6790,7 +9681,7 @@
       <c r="K11">
         <v>256813</v>
       </c>
-      <c r="L11">
+      <c r="L11" s="3">
         <v>29860</v>
       </c>
       <c r="M11">
@@ -6804,7 +9695,7 @@
       <c r="A12">
         <v>317180</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="3">
         <v>74957</v>
       </c>
       <c r="C12">
@@ -6816,7 +9707,7 @@
       <c r="F12">
         <v>317180</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="3">
         <v>74957</v>
       </c>
       <c r="H12">
@@ -6828,7 +9719,7 @@
       <c r="K12">
         <v>240482</v>
       </c>
-      <c r="L12">
+      <c r="L12" s="3">
         <v>28862</v>
       </c>
       <c r="M12">
@@ -6842,7 +9733,7 @@
       <c r="A13">
         <v>320120</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="3">
         <v>75857</v>
       </c>
       <c r="C13">
@@ -6854,7 +9745,7 @@
       <c r="F13">
         <v>242820</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="3">
         <v>32141</v>
       </c>
       <c r="H13">
@@ -6866,7 +9757,7 @@
       <c r="K13">
         <v>255347</v>
       </c>
-      <c r="L13">
+      <c r="L13" s="3">
         <v>33021</v>
       </c>
       <c r="M13">
@@ -6875,26 +9766,31 @@
       <c r="N13">
         <v>402</v>
       </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="L14" s="3"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="1"/>
+      <c r="B15" s="2"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G15" s="1"/>
+      <c r="G15" s="2"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="L15" s="1"/>
+      <c r="L15" s="2"/>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
     </row>
@@ -6902,7 +9798,7 @@
       <c r="A16" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C16" s="1" t="s">
@@ -6915,7 +9811,7 @@
       <c r="F16" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="G16" s="2" t="s">
         <v>12</v>
       </c>
       <c r="H16" s="1" t="s">
@@ -6928,7 +9824,7 @@
       <c r="K16" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="L16" s="1" t="s">
+      <c r="L16" s="2" t="s">
         <v>12</v>
       </c>
       <c r="M16" s="1" t="s">
@@ -6942,7 +9838,7 @@
       <c r="A17">
         <v>730</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="3">
         <v>752</v>
       </c>
       <c r="C17">
@@ -6954,7 +9850,7 @@
       <c r="F17">
         <v>730</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="3">
         <v>752</v>
       </c>
       <c r="H17">
@@ -6966,7 +9862,7 @@
       <c r="K17">
         <v>730</v>
       </c>
-      <c r="L17">
+      <c r="L17" s="3">
         <v>752</v>
       </c>
       <c r="M17">
@@ -6980,7 +9876,7 @@
       <c r="A18">
         <v>758</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="3">
         <v>764</v>
       </c>
       <c r="C18">
@@ -6992,7 +9888,7 @@
       <c r="F18">
         <v>1968</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="3">
         <v>2448</v>
       </c>
       <c r="H18">
@@ -7004,7 +9900,7 @@
       <c r="K18">
         <v>1968</v>
       </c>
-      <c r="L18">
+      <c r="L18" s="3">
         <v>2448</v>
       </c>
       <c r="M18">
@@ -7018,7 +9914,7 @@
       <c r="A19">
         <v>756</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="3">
         <v>762</v>
       </c>
       <c r="C19">
@@ -7030,7 +9926,7 @@
       <c r="F19">
         <v>2050</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="3">
         <v>2402</v>
       </c>
       <c r="H19">
@@ -7042,7 +9938,7 @@
       <c r="K19">
         <v>2050</v>
       </c>
-      <c r="L19">
+      <c r="L19" s="3">
         <v>2402</v>
       </c>
       <c r="M19">
@@ -7056,7 +9952,7 @@
       <c r="A20">
         <v>744</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="3">
         <v>748</v>
       </c>
       <c r="C20">
@@ -7068,7 +9964,7 @@
       <c r="F20">
         <v>1970</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="3">
         <v>2220</v>
       </c>
       <c r="H20">
@@ -7080,7 +9976,7 @@
       <c r="K20">
         <v>1970</v>
       </c>
-      <c r="L20">
+      <c r="L20" s="3">
         <v>2220</v>
       </c>
       <c r="M20">
@@ -7094,7 +9990,7 @@
       <c r="A21">
         <v>756</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="3">
         <v>772</v>
       </c>
       <c r="C21">
@@ -7106,7 +10002,7 @@
       <c r="F21">
         <v>756</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="3">
         <v>772</v>
       </c>
       <c r="H21">
@@ -7118,7 +10014,7 @@
       <c r="K21">
         <v>2006</v>
       </c>
-      <c r="L21">
+      <c r="L21" s="3">
         <v>2318</v>
       </c>
       <c r="M21">
@@ -7132,7 +10028,7 @@
       <c r="A22">
         <v>752</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="3">
         <v>778</v>
       </c>
       <c r="C22">
@@ -7144,7 +10040,7 @@
       <c r="F22">
         <v>1872</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="3">
         <v>2348</v>
       </c>
       <c r="H22">
@@ -7156,7 +10052,7 @@
       <c r="K22">
         <v>1968</v>
       </c>
-      <c r="L22">
+      <c r="L22" s="3">
         <v>2324</v>
       </c>
       <c r="M22">
@@ -7170,7 +10066,7 @@
       <c r="A23">
         <v>772</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="3">
         <v>776</v>
       </c>
       <c r="C23">
@@ -7182,7 +10078,7 @@
       <c r="F23">
         <v>1796</v>
       </c>
-      <c r="G23">
+      <c r="G23" s="3">
         <v>2130</v>
       </c>
       <c r="H23">
@@ -7194,7 +10090,7 @@
       <c r="K23">
         <v>1782</v>
       </c>
-      <c r="L23">
+      <c r="L23" s="3">
         <v>2050</v>
       </c>
       <c r="M23">
@@ -7208,7 +10104,7 @@
       <c r="A24">
         <v>750</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="3">
         <v>762</v>
       </c>
       <c r="C24">
@@ -7220,7 +10116,7 @@
       <c r="F24">
         <v>1974</v>
       </c>
-      <c r="G24">
+      <c r="G24" s="3">
         <v>2378</v>
       </c>
       <c r="H24">
@@ -7232,7 +10128,7 @@
       <c r="K24">
         <v>1976</v>
       </c>
-      <c r="L24">
+      <c r="L24" s="3">
         <v>2338</v>
       </c>
       <c r="M24">
@@ -7246,7 +10142,7 @@
       <c r="A25">
         <v>762</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="3">
         <v>750</v>
       </c>
       <c r="C25">
@@ -7258,7 +10154,7 @@
       <c r="F25">
         <v>762</v>
       </c>
-      <c r="G25">
+      <c r="G25" s="3">
         <v>750</v>
       </c>
       <c r="H25">
@@ -7270,7 +10166,7 @@
       <c r="K25">
         <v>1846</v>
       </c>
-      <c r="L25">
+      <c r="L25" s="3">
         <v>2152</v>
       </c>
       <c r="M25">
@@ -7284,7 +10180,7 @@
       <c r="A26">
         <v>726</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="3">
         <v>738</v>
       </c>
       <c r="C26">
@@ -7296,7 +10192,7 @@
       <c r="F26">
         <v>1862</v>
       </c>
-      <c r="G26">
+      <c r="G26" s="3">
         <v>2250</v>
       </c>
       <c r="H26">
@@ -7308,7 +10204,7 @@
       <c r="K26">
         <v>1938</v>
       </c>
-      <c r="L26">
+      <c r="L26" s="3">
         <v>2342</v>
       </c>
       <c r="M26">
@@ -7317,26 +10213,31 @@
       <c r="N26">
         <v>1768</v>
       </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="L27" s="3"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B28" s="1"/>
+      <c r="B28" s="2"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G28" s="1"/>
+      <c r="G28" s="2"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="L28" s="1"/>
+      <c r="L28" s="2"/>
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
     </row>
@@ -7344,7 +10245,7 @@
       <c r="A29" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C29" s="1" t="s">
@@ -7357,7 +10258,7 @@
       <c r="F29" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G29" s="1" t="s">
+      <c r="G29" s="2" t="s">
         <v>12</v>
       </c>
       <c r="H29" s="1" t="s">
@@ -7370,7 +10271,7 @@
       <c r="K29" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="L29" s="1" t="s">
+      <c r="L29" s="2" t="s">
         <v>12</v>
       </c>
       <c r="M29" s="1" t="s">
@@ -7384,7 +10285,7 @@
       <c r="A30">
         <v>33.708862000000003</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="3">
         <v>29.964456999999999</v>
       </c>
       <c r="C30">
@@ -7396,7 +10297,7 @@
       <c r="F30">
         <v>33.708862000000003</v>
       </c>
-      <c r="G30">
+      <c r="G30" s="3">
         <v>29.964456999999999</v>
       </c>
       <c r="H30">
@@ -7408,7 +10309,7 @@
       <c r="K30">
         <v>33.708862000000003</v>
       </c>
-      <c r="L30">
+      <c r="L30" s="3">
         <v>29.964456999999999</v>
       </c>
       <c r="M30">
@@ -7422,7 +10323,7 @@
       <c r="A31">
         <v>34.120361000000003</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="3">
         <v>29.683883999999999</v>
       </c>
       <c r="C31">
@@ -7434,7 +10335,7 @@
       <c r="F31">
         <v>33.058337999999999</v>
       </c>
-      <c r="G31">
+      <c r="G31" s="3">
         <v>30.014275000000001</v>
       </c>
       <c r="H31">
@@ -7446,7 +10347,7 @@
       <c r="K31">
         <v>33.058337999999999</v>
       </c>
-      <c r="L31">
+      <c r="L31" s="3">
         <v>30.014275000000001</v>
       </c>
       <c r="M31">
@@ -7460,7 +10361,7 @@
       <c r="A32">
         <v>33.639225000000003</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="3">
         <v>30.075036999999998</v>
       </c>
       <c r="C32">
@@ -7472,7 +10373,7 @@
       <c r="F32">
         <v>33.038017000000004</v>
       </c>
-      <c r="G32">
+      <c r="G32" s="3">
         <v>29.728591999999999</v>
       </c>
       <c r="H32">
@@ -7484,7 +10385,7 @@
       <c r="K32">
         <v>33.038017000000004</v>
       </c>
-      <c r="L32">
+      <c r="L32" s="3">
         <v>29.728591999999999</v>
       </c>
       <c r="M32">
@@ -7498,7 +10399,7 @@
       <c r="A33">
         <v>33.419682000000002</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="3">
         <v>29.971406999999999</v>
       </c>
       <c r="C33">
@@ -7510,7 +10411,7 @@
       <c r="F33">
         <v>32.939011000000001</v>
       </c>
-      <c r="G33">
+      <c r="G33" s="3">
         <v>29.379180999999999</v>
       </c>
       <c r="H33">
@@ -7522,7 +10423,7 @@
       <c r="K33">
         <v>32.939011000000001</v>
       </c>
-      <c r="L33">
+      <c r="L33" s="3">
         <v>29.379180999999999</v>
       </c>
       <c r="M33">
@@ -7536,7 +10437,7 @@
       <c r="A34">
         <v>33.338515999999998</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="3">
         <v>30.440104000000002</v>
       </c>
       <c r="C34">
@@ -7548,7 +10449,7 @@
       <c r="F34">
         <v>33.338515999999998</v>
       </c>
-      <c r="G34">
+      <c r="G34" s="3">
         <v>30.440104000000002</v>
       </c>
       <c r="H34">
@@ -7560,7 +10461,7 @@
       <c r="K34">
         <v>32.670890999999997</v>
       </c>
-      <c r="L34">
+      <c r="L34" s="3">
         <v>29.534590000000001</v>
       </c>
       <c r="M34">
@@ -7574,7 +10475,7 @@
       <c r="A35">
         <v>33.522120999999999</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="3">
         <v>29.633247000000001</v>
       </c>
       <c r="C35">
@@ -7586,7 +10487,7 @@
       <c r="F35">
         <v>33.062843000000001</v>
       </c>
-      <c r="G35">
+      <c r="G35" s="3">
         <v>30.177292000000001</v>
       </c>
       <c r="H35">
@@ -7598,7 +10499,7 @@
       <c r="K35">
         <v>32.728233000000003</v>
       </c>
-      <c r="L35">
+      <c r="L35" s="3">
         <v>29.39349</v>
       </c>
       <c r="M35">
@@ -7612,7 +10513,7 @@
       <c r="A36">
         <v>33.602469999999997</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="3">
         <v>29.951128000000001</v>
       </c>
       <c r="C36">
@@ -7624,7 +10525,7 @@
       <c r="F36">
         <v>32.974358000000002</v>
       </c>
-      <c r="G36">
+      <c r="G36" s="3">
         <v>30.225372</v>
       </c>
       <c r="H36">
@@ -7636,7 +10537,7 @@
       <c r="K36">
         <v>32.909053999999998</v>
       </c>
-      <c r="L36">
+      <c r="L36" s="3">
         <v>29.467676000000001</v>
       </c>
       <c r="M36">
@@ -7650,7 +10551,7 @@
       <c r="A37">
         <v>34.025306999999998</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="3">
         <v>29.966553000000001</v>
       </c>
       <c r="C37">
@@ -7662,7 +10563,7 @@
       <c r="F37">
         <v>32.774475000000002</v>
       </c>
-      <c r="G37">
+      <c r="G37" s="3">
         <v>29.882588999999999</v>
       </c>
       <c r="H37">
@@ -7674,7 +10575,7 @@
       <c r="K37">
         <v>32.958599</v>
       </c>
-      <c r="L37">
+      <c r="L37" s="3">
         <v>29.515101999999999</v>
       </c>
       <c r="M37">
@@ -7688,7 +10589,7 @@
       <c r="A38">
         <v>32.572932999999999</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="3">
         <v>30.055256</v>
       </c>
       <c r="C38">
@@ -7700,7 +10601,7 @@
       <c r="F38">
         <v>32.572932999999999</v>
       </c>
-      <c r="G38">
+      <c r="G38" s="3">
         <v>30.055256</v>
       </c>
       <c r="H38">
@@ -7712,7 +10613,7 @@
       <c r="K38">
         <v>32.54533</v>
       </c>
-      <c r="L38">
+      <c r="L38" s="3">
         <v>29.429565</v>
       </c>
       <c r="M38">
@@ -7726,7 +10627,7 @@
       <c r="A39">
         <v>33.883343000000004</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="3">
         <v>29.914805999999999</v>
       </c>
       <c r="C39">
@@ -7738,7 +10639,7 @@
       <c r="F39">
         <v>32.794345999999997</v>
       </c>
-      <c r="G39">
+      <c r="G39" s="3">
         <v>29.895008000000001</v>
       </c>
       <c r="H39">
@@ -7750,7 +10651,7 @@
       <c r="K39">
         <v>32.920836999999999</v>
       </c>
-      <c r="L39">
+      <c r="L39" s="3">
         <v>29.816147000000001</v>
       </c>
       <c r="M39">
@@ -8199,7 +11100,520 @@
         <v>17.505871900000002</v>
       </c>
     </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A60" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B60" s="3"/>
+      <c r="F60" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K60" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <f>SUM(A4, A17)</f>
+        <v>313734</v>
+      </c>
+      <c r="B61" s="3">
+        <f t="shared" ref="B61:D61" si="0">SUM(B4, B17)</f>
+        <v>76440</v>
+      </c>
+      <c r="C61">
+        <f t="shared" si="0"/>
+        <v>8350</v>
+      </c>
+      <c r="D61">
+        <f t="shared" si="0"/>
+        <v>954</v>
+      </c>
+      <c r="F61">
+        <f>SUM(F4,F17)</f>
+        <v>313734</v>
+      </c>
+      <c r="G61" s="3">
+        <f t="shared" ref="G61:I61" si="1">SUM(G4,G17)</f>
+        <v>76440</v>
+      </c>
+      <c r="H61">
+        <f t="shared" si="1"/>
+        <v>8350</v>
+      </c>
+      <c r="I61">
+        <f t="shared" si="1"/>
+        <v>954</v>
+      </c>
+      <c r="K61">
+        <f>SUM(K4,K17)</f>
+        <v>313734</v>
+      </c>
+      <c r="L61" s="3">
+        <f t="shared" ref="L61:N61" si="2">SUM(L4,L17)</f>
+        <v>76440</v>
+      </c>
+      <c r="M61">
+        <f t="shared" si="2"/>
+        <v>8350</v>
+      </c>
+      <c r="N61">
+        <f t="shared" si="2"/>
+        <v>954</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <f t="shared" ref="A62:D70" si="3">SUM(A5, A18)</f>
+        <v>308820</v>
+      </c>
+      <c r="B62" s="3">
+        <f t="shared" si="3"/>
+        <v>74355</v>
+      </c>
+      <c r="C62">
+        <f t="shared" si="3"/>
+        <v>8566</v>
+      </c>
+      <c r="D62">
+        <f t="shared" si="3"/>
+        <v>938</v>
+      </c>
+      <c r="F62">
+        <f t="shared" ref="F62:I70" si="4">SUM(F5,F18)</f>
+        <v>253190</v>
+      </c>
+      <c r="G62" s="3">
+        <f t="shared" si="4"/>
+        <v>39096</v>
+      </c>
+      <c r="H62">
+        <f t="shared" si="4"/>
+        <v>4356</v>
+      </c>
+      <c r="I62">
+        <f t="shared" si="4"/>
+        <v>2388</v>
+      </c>
+      <c r="K62">
+        <f t="shared" ref="K62:N70" si="5">SUM(K5,K18)</f>
+        <v>253190</v>
+      </c>
+      <c r="L62" s="3">
+        <f t="shared" si="5"/>
+        <v>39096</v>
+      </c>
+      <c r="M62">
+        <f t="shared" si="5"/>
+        <v>4356</v>
+      </c>
+      <c r="N62">
+        <f t="shared" si="5"/>
+        <v>2388</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <f t="shared" si="3"/>
+        <v>308172</v>
+      </c>
+      <c r="B63" s="3">
+        <f t="shared" si="3"/>
+        <v>74438</v>
+      </c>
+      <c r="C63">
+        <f t="shared" si="3"/>
+        <v>8552</v>
+      </c>
+      <c r="D63">
+        <f t="shared" si="3"/>
+        <v>938</v>
+      </c>
+      <c r="F63">
+        <f t="shared" si="4"/>
+        <v>249362</v>
+      </c>
+      <c r="G63" s="3">
+        <f t="shared" si="4"/>
+        <v>36806</v>
+      </c>
+      <c r="H63">
+        <f t="shared" si="4"/>
+        <v>4250</v>
+      </c>
+      <c r="I63">
+        <f t="shared" si="4"/>
+        <v>2390</v>
+      </c>
+      <c r="K63">
+        <f t="shared" si="5"/>
+        <v>249362</v>
+      </c>
+      <c r="L63" s="3">
+        <f t="shared" si="5"/>
+        <v>36806</v>
+      </c>
+      <c r="M63">
+        <f t="shared" si="5"/>
+        <v>4250</v>
+      </c>
+      <c r="N63">
+        <f t="shared" si="5"/>
+        <v>2390</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <f t="shared" si="3"/>
+        <v>312586</v>
+      </c>
+      <c r="B64" s="3">
+        <f t="shared" si="3"/>
+        <v>75148</v>
+      </c>
+      <c r="C64">
+        <f t="shared" si="3"/>
+        <v>8104</v>
+      </c>
+      <c r="D64">
+        <f t="shared" si="3"/>
+        <v>952</v>
+      </c>
+      <c r="F64">
+        <f t="shared" si="4"/>
+        <v>231983</v>
+      </c>
+      <c r="G64" s="3">
+        <f t="shared" si="4"/>
+        <v>31458</v>
+      </c>
+      <c r="H64">
+        <f t="shared" si="4"/>
+        <v>4005</v>
+      </c>
+      <c r="I64">
+        <f t="shared" si="4"/>
+        <v>2420</v>
+      </c>
+      <c r="K64">
+        <f t="shared" si="5"/>
+        <v>231983</v>
+      </c>
+      <c r="L64" s="3">
+        <f t="shared" si="5"/>
+        <v>31458</v>
+      </c>
+      <c r="M64">
+        <f t="shared" si="5"/>
+        <v>4005</v>
+      </c>
+      <c r="N64">
+        <f t="shared" si="5"/>
+        <v>2420</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <f t="shared" si="3"/>
+        <v>311594</v>
+      </c>
+      <c r="B65" s="3">
+        <f t="shared" si="3"/>
+        <v>74506</v>
+      </c>
+      <c r="C65">
+        <f t="shared" si="3"/>
+        <v>8328</v>
+      </c>
+      <c r="D65">
+        <f t="shared" si="3"/>
+        <v>968</v>
+      </c>
+      <c r="F65">
+        <f t="shared" si="4"/>
+        <v>311594</v>
+      </c>
+      <c r="G65" s="3">
+        <f t="shared" si="4"/>
+        <v>74506</v>
+      </c>
+      <c r="H65">
+        <f t="shared" si="4"/>
+        <v>8328</v>
+      </c>
+      <c r="I65">
+        <f t="shared" si="4"/>
+        <v>968</v>
+      </c>
+      <c r="K65">
+        <f t="shared" si="5"/>
+        <v>249021</v>
+      </c>
+      <c r="L65" s="3">
+        <f t="shared" si="5"/>
+        <v>33171</v>
+      </c>
+      <c r="M65">
+        <f t="shared" si="5"/>
+        <v>4000</v>
+      </c>
+      <c r="N65">
+        <f t="shared" si="5"/>
+        <v>2396</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <f t="shared" si="3"/>
+        <v>312711</v>
+      </c>
+      <c r="B66" s="3">
+        <f t="shared" si="3"/>
+        <v>75051</v>
+      </c>
+      <c r="C66">
+        <f t="shared" si="3"/>
+        <v>8625</v>
+      </c>
+      <c r="D66">
+        <f t="shared" si="3"/>
+        <v>944</v>
+      </c>
+      <c r="F66">
+        <f t="shared" si="4"/>
+        <v>242194</v>
+      </c>
+      <c r="G66" s="3">
+        <f t="shared" si="4"/>
+        <v>35023</v>
+      </c>
+      <c r="H66">
+        <f t="shared" si="4"/>
+        <v>4381</v>
+      </c>
+      <c r="I66">
+        <f t="shared" si="4"/>
+        <v>2334</v>
+      </c>
+      <c r="K66">
+        <f t="shared" si="5"/>
+        <v>251669</v>
+      </c>
+      <c r="L66" s="3">
+        <f t="shared" si="5"/>
+        <v>35586</v>
+      </c>
+      <c r="M66">
+        <f t="shared" si="5"/>
+        <v>3858</v>
+      </c>
+      <c r="N66">
+        <f t="shared" si="5"/>
+        <v>2352</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <f t="shared" si="3"/>
+        <v>314502</v>
+      </c>
+      <c r="B67" s="3">
+        <f t="shared" si="3"/>
+        <v>75085</v>
+      </c>
+      <c r="C67">
+        <f t="shared" si="3"/>
+        <v>8384</v>
+      </c>
+      <c r="D67">
+        <f t="shared" si="3"/>
+        <v>934</v>
+      </c>
+      <c r="F67">
+        <f t="shared" si="4"/>
+        <v>201251</v>
+      </c>
+      <c r="G67" s="3">
+        <f t="shared" si="4"/>
+        <v>25170</v>
+      </c>
+      <c r="H67">
+        <f t="shared" si="4"/>
+        <v>3961</v>
+      </c>
+      <c r="I67">
+        <f t="shared" si="4"/>
+        <v>2392</v>
+      </c>
+      <c r="K67">
+        <f t="shared" si="5"/>
+        <v>202363</v>
+      </c>
+      <c r="L67" s="3">
+        <f t="shared" si="5"/>
+        <v>26299</v>
+      </c>
+      <c r="M67">
+        <f t="shared" si="5"/>
+        <v>3680</v>
+      </c>
+      <c r="N67">
+        <f t="shared" si="5"/>
+        <v>2224</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <f t="shared" si="3"/>
+        <v>318120</v>
+      </c>
+      <c r="B68" s="3">
+        <f t="shared" si="3"/>
+        <v>76829</v>
+      </c>
+      <c r="C68">
+        <f t="shared" si="3"/>
+        <v>8422</v>
+      </c>
+      <c r="D68">
+        <f t="shared" si="3"/>
+        <v>934</v>
+      </c>
+      <c r="F68">
+        <f t="shared" si="4"/>
+        <v>256770</v>
+      </c>
+      <c r="G68" s="3">
+        <f t="shared" si="4"/>
+        <v>32891</v>
+      </c>
+      <c r="H68">
+        <f t="shared" si="4"/>
+        <v>3925</v>
+      </c>
+      <c r="I68">
+        <f t="shared" si="4"/>
+        <v>2342</v>
+      </c>
+      <c r="K68">
+        <f t="shared" si="5"/>
+        <v>258789</v>
+      </c>
+      <c r="L68" s="3">
+        <f t="shared" si="5"/>
+        <v>32198</v>
+      </c>
+      <c r="M68">
+        <f t="shared" si="5"/>
+        <v>3717</v>
+      </c>
+      <c r="N68">
+        <f t="shared" si="5"/>
+        <v>2162</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <f t="shared" si="3"/>
+        <v>317942</v>
+      </c>
+      <c r="B69" s="3">
+        <f t="shared" si="3"/>
+        <v>75707</v>
+      </c>
+      <c r="C69">
+        <f t="shared" si="3"/>
+        <v>8498</v>
+      </c>
+      <c r="D69">
+        <f t="shared" si="3"/>
+        <v>906</v>
+      </c>
+      <c r="F69">
+        <f t="shared" si="4"/>
+        <v>317942</v>
+      </c>
+      <c r="G69" s="3">
+        <f t="shared" si="4"/>
+        <v>75707</v>
+      </c>
+      <c r="H69">
+        <f t="shared" si="4"/>
+        <v>8498</v>
+      </c>
+      <c r="I69">
+        <f t="shared" si="4"/>
+        <v>906</v>
+      </c>
+      <c r="K69">
+        <f t="shared" si="5"/>
+        <v>242328</v>
+      </c>
+      <c r="L69" s="3">
+        <f t="shared" si="5"/>
+        <v>31014</v>
+      </c>
+      <c r="M69">
+        <f t="shared" si="5"/>
+        <v>3622</v>
+      </c>
+      <c r="N69">
+        <f t="shared" si="5"/>
+        <v>2162</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <f t="shared" si="3"/>
+        <v>320846</v>
+      </c>
+      <c r="B70" s="3">
+        <f t="shared" si="3"/>
+        <v>76595</v>
+      </c>
+      <c r="C70">
+        <f t="shared" si="3"/>
+        <v>8543</v>
+      </c>
+      <c r="D70">
+        <f t="shared" si="3"/>
+        <v>920</v>
+      </c>
+      <c r="F70">
+        <f t="shared" si="4"/>
+        <v>244682</v>
+      </c>
+      <c r="G70" s="3">
+        <f t="shared" si="4"/>
+        <v>34391</v>
+      </c>
+      <c r="H70">
+        <f t="shared" si="4"/>
+        <v>4586</v>
+      </c>
+      <c r="I70">
+        <f t="shared" si="4"/>
+        <v>2234</v>
+      </c>
+      <c r="K70">
+        <f t="shared" si="5"/>
+        <v>257285</v>
+      </c>
+      <c r="L70" s="3">
+        <f t="shared" si="5"/>
+        <v>35363</v>
+      </c>
+      <c r="M70">
+        <f t="shared" si="5"/>
+        <v>3540</v>
+      </c>
+      <c r="N70">
+        <f t="shared" si="5"/>
+        <v>2170</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>